--- a/Documentação/Planilhas/20151124_Confere/Conferencia_NFD.xlsx
+++ b/Documentação/Planilhas/20151124_Confere/Conferencia_NFD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="stg_nfd_cab" sheetId="104" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="341">
   <si>
     <t>CD_CIA</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Fazer o detalhamento da ref fiscal. Na aba superior "Valores", seção "Outros Valores", pegar a informação de "Despesa Aduaneira"</t>
   </si>
   <si>
-    <t>Selecionar a Referência Fiscal desejada. No menu Specific, selecionar "Fatura - Relação de Origem". Na aba inferior "Ordem de Venda/Armazém/Compra", pegar a informação da coluna Ordem</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da ref fiscal. Na aba superior "Valores", seção "Valor Mercadoria", pegar a informação do "Valor Mercadoria"</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>Para saber a Origem da Venda, na aba inferior "Linhas - Nota fiscal", detalhar a linha apresentada. Na aba superior "Geral", seção "Data Fiscal", pegar a informação de "Origem da Venda"</t>
   </si>
   <si>
-    <t>Se no menu "Specific" essa opção não estiver habilitada, fazer o detalhamento da Referência. Na aba inferior "Linhas - Nota fiscal", pegar a informação da coluna "Referência Fiscal Relativa"  e buscar a Ordem de Venda por essa Referência Fiscal Relativa. Se não existir a Referência Fiscal relativa, não existe Ordem de Venda. Virá como NULL</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da ref fiscal. Na aba inferior "Imposto", pegar a informação da coluna "Valor" onde o tipo de imposto é PIS, apenas para as informações cuja "Origem da Venda" seja: Estrangeiro importação direta ou Estrangeiro importação direta-CAMEX</t>
   </si>
   <si>
@@ -503,11 +497,6 @@
     <t>Fazer o detalhamento da ref fiscal. Na aba superior "Valores", seção "Outros Valores", pegar a informação de "Frete", apenas para as informações cuja "Origem da Venda" seja: Estrangeiro importação direta ou Estrangeiro importação direta-CAMEX</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Remessa Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Referência Fiscal Relativa". 
-Informar a Ref Fiscal Relativa na coluna "Referência Fiscal" e pedir o seu detalhamento. 
-Na aba superior "Geral", seção "Dados do documento", pegar a informação do "Número do Documento"</t>
-  </si>
-  <si>
     <t>tdsls4100m000 (Ordens de Vendas)</t>
   </si>
   <si>
@@ -523,22 +512,7 @@
     <t>Pegar a informação do código da unidade empresarial e ir para a sessão "tcemm0130m000". Informar a Unidade Empresarial na coluna "Unid Empresarial" e pegar a informação da coluna "Cat Unid Empresarial"</t>
   </si>
   <si>
-    <t>Informar o NR_ORDEM na coluna "Ordem de Venda". Se o mesmo não for apresentado, navegar através dos botões  "Next Group" até encontrá-lo. Pegar a informação da coluna "Pedido do Cliente"</t>
-  </si>
-  <si>
-    <t>Informar o NR_ORDEM na coluna "Ordem de Venda". Se o mesmo não for apresentado, navegar através dos botões  "Next Group" até encontrá-lo. Pegar a informação da coluna "Entrega"</t>
-  </si>
-  <si>
-    <t>Informar o NR_ORDEM na coluna "Ordem de Venda". Se o mesmo não for apresentado, navegar através dos botões  "Next Group" até encontrá-lo. Pegar a informação de Unidade de Negócio no cabeçalho da tela</t>
-  </si>
-  <si>
-    <t>Está buscando o campo interno "rcd_utc" da tabela "cisli943". Como este campo foi criado recentemente, os registros existentes ficaram com a data nula e com a aplicação do timezone, ficarão com a data "1969-12-31 21:00:00.000". Segundo o Fábio, no ambiente de produção não existirão esses casos</t>
-  </si>
-  <si>
     <t>Sessão cislil504m00l (Nota Fiscal) - Informar a Referência Fiscal na coluna "Referência fiscal"</t>
-  </si>
-  <si>
-    <t>Sessão znslsc524m000 (Origem da Ordem de Venda)</t>
   </si>
   <si>
     <t>Sessão znslsc500m000 (Ped Integrados)</t>
@@ -841,21 +815,6 @@
     <t>Fixo 1</t>
   </si>
   <si>
-    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Fatura Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Referência Fiscal Relativa". 
-Informar a Ref Fiscal Relativa na coluna "Referência Fiscal" e pedir o seu detalhamento. 
-Na aba superior "Geral", seção "Dados do documento", pegar a informação do "Número do Documento"</t>
-  </si>
-  <si>
-    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Remessa Op. triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Referência Fiscal Relativa". 
-Informar a Ref Fiscal Relativa na coluna "Referência Fiscal" e pedir o seu detalhamento. 
-Na aba superior "Geral", seção "Dados do documento", pegar a informação da "Serie"</t>
-  </si>
-  <si>
-    <t>Pegar a informação da coluna "Tipo Doc. Fiscal" . Se for "Fatura Op. Triangular", pedir o detalhamento da Referência Fiscal e na aba inferior "Linhas Nota Fiscal", pegar a informação da coluna "Referência Fiscal Relativa". 
-Informar a Ref Fiscal Relativa na coluna "Referência Fiscal" e pedir o seu detalhamento. 
-Na aba superior "Geral", seção "Dados do documento", pegar a informação da "Serie"</t>
-  </si>
-  <si>
     <t>Informar o NR_ORDEM na coluna "Ordem" e pedir o seu detalhamento. Na aba "Geral",  seção "Controle" pegar a informação do "Tipo de Ordem de Vendas"</t>
   </si>
   <si>
@@ -869,6 +828,237 @@
   </si>
   <si>
     <t>stg_nfd_eletronica</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>F30000708</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2015-10-08 10:42:58.000</t>
+  </si>
+  <si>
+    <t>DEV ATO</t>
+  </si>
+  <si>
+    <t>25656</t>
+  </si>
+  <si>
+    <t>6202</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>000000230</t>
+  </si>
+  <si>
+    <t>710.0000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>781.0000</t>
+  </si>
+  <si>
+    <t>85.2000</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>12.8900</t>
+  </si>
+  <si>
+    <t>59.3600</t>
+  </si>
+  <si>
+    <t>N00003</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2015-11-03 13:48:35.000</t>
+  </si>
+  <si>
+    <t>F30000709</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2015-12-23 14:37:07.000</t>
+  </si>
+  <si>
+    <t>25686</t>
+  </si>
+  <si>
+    <t>000000032</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>21.7700</t>
+  </si>
+  <si>
+    <t>24.3800</t>
+  </si>
+  <si>
+    <t>2.6100</t>
+  </si>
+  <si>
+    <t>0.4000</t>
+  </si>
+  <si>
+    <t>1.8500</t>
+  </si>
+  <si>
+    <t>2015-12-23 14:47:32.000</t>
+  </si>
+  <si>
+    <t>F30000717</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2015-12-23 14:25:44.000</t>
+  </si>
+  <si>
+    <t>25685</t>
+  </si>
+  <si>
+    <t>000000209</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>155.1000</t>
+  </si>
+  <si>
+    <t>16.9200</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>2.5600</t>
+  </si>
+  <si>
+    <t>11.7900</t>
+  </si>
+  <si>
+    <t>2015-12-23 14:28:58.000</t>
+  </si>
+  <si>
+    <t>F30000718</t>
+  </si>
+  <si>
+    <t>2015-12-22 10:43:15.000</t>
+  </si>
+  <si>
+    <t>25682</t>
+  </si>
+  <si>
+    <t>000000012</t>
+  </si>
+  <si>
+    <t>878.5600</t>
+  </si>
+  <si>
+    <t>105.4300</t>
+  </si>
+  <si>
+    <t>14.5000</t>
+  </si>
+  <si>
+    <t>66.7700</t>
+  </si>
+  <si>
+    <t>2015-12-22 10:45:00.000</t>
+  </si>
+  <si>
+    <t>F30000719</t>
+  </si>
+  <si>
+    <t>2015-12-22 10:37:29.000</t>
+  </si>
+  <si>
+    <t>25681</t>
+  </si>
+  <si>
+    <t>000000101</t>
+  </si>
+  <si>
+    <t>108.3000</t>
+  </si>
+  <si>
+    <t>119.1300</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>10.8300</t>
+  </si>
+  <si>
+    <t>1.9700</t>
+  </si>
+  <si>
+    <t>9.0500</t>
+  </si>
+  <si>
+    <t>2015-12-22 10:40:04.000</t>
+  </si>
+  <si>
+    <t>F30000720</t>
+  </si>
+  <si>
+    <t>2015-12-22 10:26:34.000</t>
+  </si>
+  <si>
+    <t>25680</t>
+  </si>
+  <si>
+    <t>000000519</t>
+  </si>
+  <si>
+    <t>56.2000</t>
+  </si>
+  <si>
+    <t>67.4400</t>
+  </si>
+  <si>
+    <t>6.7400</t>
+  </si>
+  <si>
+    <t>11.2400</t>
+  </si>
+  <si>
+    <t>1.1100</t>
+  </si>
+  <si>
+    <t>5.1300</t>
+  </si>
+  <si>
+    <t>2015-12-22 10:32:09.000</t>
+  </si>
+  <si>
+    <t>Para saber a Origem da Venda, na aba inferior "Linhas - Nota fiscal", detalhar a linha apresentada. Na aba superior "Geral", seção "Data Fiscal", pegar a informação de "Origem da Mercadoria"</t>
+  </si>
+  <si>
+    <t>Está buscando o campo interno "rcd_utc" da tabela "cisli943". Não temos acesso pelas telas do LN nesta data</t>
   </si>
 </sst>
 </file>
@@ -944,12 +1134,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -975,6 +1159,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1166,10 +1356,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1202,31 +1392,28 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,65 +1425,56 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1306,6 +1484,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,10 +1852,10 @@
   <sheetPr>
     <tabColor rgb="FFFF5050"/>
   </sheetPr>
-  <dimension ref="A1:AV136"/>
+  <dimension ref="A1:AN136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1678,80 +1865,75 @@
     <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
     <col min="4" max="5" width="26.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="4" customWidth="1"/>
-    <col min="22" max="23" width="21.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="20.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="1" customWidth="1"/>
-    <col min="31" max="33" width="21.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.28515625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="22.42578125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="23.28515625" style="1" customWidth="1"/>
-    <col min="37" max="37" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.28515625" style="1" customWidth="1"/>
-    <col min="39" max="40" width="23.5703125" style="1" customWidth="1"/>
-    <col min="41" max="41" width="24.140625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23" style="1" customWidth="1"/>
-    <col min="43" max="43" width="34.42578125" style="4" customWidth="1"/>
-    <col min="44" max="44" width="34.140625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="38.5703125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="38.42578125" style="4" customWidth="1"/>
-    <col min="47" max="47" width="33.42578125" style="3" customWidth="1"/>
-    <col min="48" max="48" width="32.7109375" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.42578125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20" style="1" customWidth="1"/>
+    <col min="28" max="30" width="21.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="22.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" style="1" customWidth="1"/>
+    <col min="35" max="35" width="34.42578125" style="4" customWidth="1"/>
+    <col min="36" max="36" width="34.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="38.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="38.42578125" style="4" customWidth="1"/>
+    <col min="39" max="39" width="25.42578125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="32.7109375" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="4"/>
-    </row>
-    <row r="2" spans="1:48" ht="21">
-      <c r="A2" s="28" t="s">
+    <row r="1" spans="1:40">
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="4"/>
+    </row>
+    <row r="2" spans="1:40" ht="21">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="4"/>
-    </row>
-    <row r="3" spans="1:48" ht="21">
-      <c r="A3" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="AI2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="4"/>
+    </row>
+    <row r="3" spans="1:40" ht="21">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="4"/>
-    </row>
-    <row r="4" spans="1:48">
-      <c r="AU4" s="4"/>
-    </row>
-    <row r="5" spans="1:48">
-      <c r="AU5" s="4"/>
-    </row>
-    <row r="6" spans="1:48" s="6" customFormat="1" ht="15" customHeight="1">
+        <v>164</v>
+      </c>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="4"/>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="AM4" s="4"/>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="1:40" s="6" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
@@ -1771,406 +1953,826 @@
         <v>34</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="Z6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="AA6" s="11" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AF6" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AG6" s="11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AK6" s="11" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT6" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AU6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="3"/>
-    </row>
-    <row r="8" spans="1:48">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="3"/>
-    </row>
-    <row r="9" spans="1:48">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="3"/>
-    </row>
-    <row r="10" spans="1:48">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="3"/>
-    </row>
-    <row r="11" spans="1:48">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="3"/>
-    </row>
-    <row r="12" spans="1:48">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="3"/>
-    </row>
-    <row r="13" spans="1:48">
+    <row r="7" spans="1:40">
+      <c r="A7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="H7" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="P7" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="S7" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="T7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="U7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="V7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="W7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="X7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z7" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA7" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB7" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC7" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD7" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE7" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG7" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH7" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ7" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK7" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN7" s="3"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM11" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM12" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN12" s="3"/>
+    </row>
+    <row r="13" spans="1:40">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2180,21 +2782,21 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="14"/>
+      <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -2203,20 +2805,12 @@
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="3"/>
-    </row>
-    <row r="14" spans="1:48">
+      <c r="AN13" s="3"/>
+    </row>
+    <row r="14" spans="1:40">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2226,21 +2820,21 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
-      <c r="Z14" s="14"/>
+      <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2249,20 +2843,12 @@
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="3"/>
-    </row>
-    <row r="15" spans="1:48">
+      <c r="AN14" s="3"/>
+    </row>
+    <row r="15" spans="1:40">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2272,21 +2858,21 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="14"/>
+      <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -2295,20 +2881,12 @@
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="3"/>
-    </row>
-    <row r="16" spans="1:48">
+      <c r="AN15" s="3"/>
+    </row>
+    <row r="16" spans="1:40">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2318,21 +2896,21 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="O16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="14"/>
+      <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -2341,2279 +2919,2017 @@
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="3"/>
-    </row>
-    <row r="17" spans="1:48">
+      <c r="AN16" s="3"/>
+    </row>
+    <row r="17" spans="1:40">
       <c r="B17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="O17" s="1"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="1"/>
-      <c r="Z17" s="2"/>
-      <c r="AB17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="3"/>
-    </row>
-    <row r="18" spans="1:48">
-      <c r="B18" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="30"/>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO18" s="30"/>
-      <c r="AP18" s="30"/>
-      <c r="AQ18" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR18" s="41" t="s">
+      <c r="G17" s="4"/>
+      <c r="J17" s="1"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="1"/>
+      <c r="S17" s="2"/>
+      <c r="Y17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="3"/>
+    </row>
+    <row r="18" spans="1:40" ht="11.25" customHeight="1">
+      <c r="B18" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+      <c r="AI18" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK18" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL18" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="3"/>
+    </row>
+    <row r="19" spans="1:40" ht="11.25" customHeight="1">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="3"/>
+    </row>
+    <row r="20" spans="1:40" ht="11.25" customHeight="1">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="3"/>
+    </row>
+    <row r="21" spans="1:40" ht="11.25" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="U21" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA21" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB21" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC21" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD21" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE21" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF21" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG21" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH21" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI21" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK21" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="AS18" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT18" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="3"/>
-    </row>
-    <row r="19" spans="1:48">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="3"/>
-    </row>
-    <row r="20" spans="1:48">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="3"/>
-    </row>
-    <row r="21" spans="1:48" ht="11.25" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="O21" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="P21" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="R21" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="T21" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="U21" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="V21" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="W21" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="X21" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y21" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z21" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA21" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB21" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC21" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD21" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE21" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF21" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG21" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH21" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI21" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ21" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK21" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL21" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM21" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN21" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO21" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP21" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ21" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="AR21" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS21" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT21" s="36" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU21" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV21" s="3"/>
-    </row>
-    <row r="22" spans="1:48">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="25"/>
+      <c r="AL21" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="AM21" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="AN21" s="3"/>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="37"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="29"/>
       <c r="AJ22" s="26"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="37"/>
-      <c r="AS22" s="38"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="3"/>
-    </row>
-    <row r="23" spans="1:48">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="25"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="3"/>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="30"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="30"/>
+      <c r="AG23" s="30"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="29"/>
       <c r="AJ23" s="26"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="39"/>
-      <c r="AV23" s="3"/>
-    </row>
-    <row r="24" spans="1:48">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="25"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="25"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="3"/>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="29"/>
       <c r="AJ24" s="26"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="37"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="39"/>
-      <c r="AV24" s="3"/>
-    </row>
-    <row r="25" spans="1:48">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="25"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="3"/>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="30"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="29"/>
       <c r="AJ25" s="26"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="37"/>
-      <c r="AS25" s="38"/>
-      <c r="AT25" s="36"/>
-      <c r="AU25" s="39"/>
-      <c r="AV25" s="3"/>
-    </row>
-    <row r="26" spans="1:48">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-      <c r="AC26" s="24"/>
-      <c r="AD26" s="24"/>
-      <c r="AE26" s="24"/>
-      <c r="AF26" s="24"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="24"/>
-      <c r="AI26" s="25"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="3"/>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="29"/>
       <c r="AJ26" s="26"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="24"/>
-      <c r="AM26" s="24"/>
-      <c r="AN26" s="23"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="23"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="37"/>
-      <c r="AS26" s="38"/>
-      <c r="AT26" s="36"/>
-      <c r="AU26" s="39"/>
-      <c r="AV26" s="3"/>
-    </row>
-    <row r="27" spans="1:48">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-      <c r="AC27" s="24"/>
-      <c r="AD27" s="24"/>
-      <c r="AE27" s="24"/>
-      <c r="AF27" s="24"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="24"/>
-      <c r="AI27" s="25"/>
+      <c r="AK26" s="27"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="28"/>
+      <c r="AN26" s="3"/>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="29"/>
       <c r="AJ27" s="26"/>
-      <c r="AK27" s="24"/>
-      <c r="AL27" s="24"/>
-      <c r="AM27" s="24"/>
-      <c r="AN27" s="23"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="23"/>
-      <c r="AQ27" s="40"/>
-      <c r="AR27" s="37"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="36"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="3"/>
-    </row>
-    <row r="28" spans="1:48">
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="1"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="1"/>
-      <c r="W28" s="24"/>
-      <c r="Z28" s="24"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="1"/>
-      <c r="AH28" s="24"/>
-      <c r="AJ28" s="26"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="1"/>
-      <c r="AU28" s="1"/>
-      <c r="AV28" s="3"/>
-    </row>
-    <row r="29" spans="1:48" ht="11.25" customHeight="1">
+      <c r="AK27" s="27"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="28"/>
+      <c r="AN27" s="3"/>
+    </row>
+    <row r="28" spans="1:40" ht="11.25" customHeight="1">
+      <c r="I28" s="4"/>
+      <c r="J28" s="1"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="1"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="34"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="3"/>
+    </row>
+    <row r="29" spans="1:40" ht="11.25" customHeight="1">
       <c r="C29" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="26"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="1"/>
-      <c r="T29" s="17" t="s">
+      <c r="I29" s="4"/>
+      <c r="J29" s="1"/>
+      <c r="O29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="U29" s="1"/>
-      <c r="W29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="1"/>
-      <c r="AH29" s="24"/>
-      <c r="AJ29" s="26"/>
-      <c r="AP29" s="4"/>
-      <c r="AQ29" s="1"/>
-      <c r="AU29" s="1"/>
-      <c r="AV29" s="3"/>
-    </row>
-    <row r="30" spans="1:48">
+      <c r="P29" s="1"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="34"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="3"/>
+    </row>
+    <row r="30" spans="1:40">
       <c r="C30" s="21" t="s">
         <v>119</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="26"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="1"/>
-      <c r="T30" s="18" t="s">
+      <c r="I30" s="4"/>
+      <c r="J30" s="1"/>
+      <c r="O30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="U30" s="1"/>
-      <c r="W30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="1"/>
-      <c r="AH30" s="24"/>
-      <c r="AJ30" s="26"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="1"/>
-      <c r="AU30" s="1"/>
-      <c r="AV30" s="3"/>
-    </row>
-    <row r="31" spans="1:48">
+      <c r="P30" s="1"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="34"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="3"/>
+    </row>
+    <row r="31" spans="1:40">
       <c r="C31" s="21" t="s">
         <v>120</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="26"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="1"/>
-      <c r="T31" s="18" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="1"/>
+      <c r="O31" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="U31" s="1"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="1"/>
-      <c r="AP31" s="4"/>
-      <c r="AQ31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="3"/>
-    </row>
-    <row r="32" spans="1:48">
+      <c r="P31" s="1"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="3"/>
+    </row>
+    <row r="32" spans="1:40">
       <c r="C32" s="21" t="s">
         <v>121</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="26"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="1"/>
-      <c r="T32" s="18" t="s">
+      <c r="I32" s="4"/>
+      <c r="J32" s="1"/>
+      <c r="O32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="U32" s="1"/>
-      <c r="W32" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z32" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="1"/>
-      <c r="AH32" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ32" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP32" s="4"/>
-      <c r="AQ32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="3"/>
-    </row>
-    <row r="33" spans="3:48">
+      <c r="P32" s="1"/>
+      <c r="R32" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="T32" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="U32" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="3"/>
+    </row>
+    <row r="33" spans="3:40">
       <c r="C33" s="21" t="s">
         <v>122</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="26"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="1"/>
-      <c r="T33" s="18" t="s">
+      <c r="I33" s="4"/>
+      <c r="J33" s="1"/>
+      <c r="O33" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="U33" s="1"/>
-      <c r="W33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="1"/>
-      <c r="AH33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AP33" s="4"/>
-      <c r="AQ33" s="1"/>
-      <c r="AU33" s="1"/>
-      <c r="AV33" s="3"/>
-    </row>
-    <row r="34" spans="3:48">
+      <c r="P33" s="1"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="30"/>
+      <c r="U33" s="30"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="3"/>
+    </row>
+    <row r="34" spans="3:40">
       <c r="C34" s="21" t="s">
         <v>123</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="26"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="1"/>
-      <c r="T34" s="18" t="s">
+      <c r="I34" s="4"/>
+      <c r="J34" s="1"/>
+      <c r="O34" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="U34" s="1"/>
-      <c r="W34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="1"/>
-      <c r="AH34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AP34" s="4"/>
-      <c r="AQ34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="3"/>
-    </row>
-    <row r="35" spans="3:48">
+      <c r="P34" s="1"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="30"/>
+      <c r="U34" s="30"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="3"/>
+    </row>
+    <row r="35" spans="3:40">
       <c r="C35" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="1"/>
-      <c r="T35" s="18" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="1"/>
+      <c r="O35" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="U35" s="1"/>
-      <c r="W35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="1"/>
-      <c r="AH35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="3"/>
-    </row>
-    <row r="36" spans="3:48">
+      <c r="P35" s="1"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="30"/>
+      <c r="U35" s="30"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="3"/>
+    </row>
+    <row r="36" spans="3:40">
       <c r="C36" s="22" t="s">
         <v>125</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="K36" s="26"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="1"/>
-      <c r="T36" s="19" t="s">
+      <c r="I36" s="4"/>
+      <c r="J36" s="1"/>
+      <c r="O36" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="U36" s="1"/>
-      <c r="W36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="1"/>
-      <c r="AH36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="3"/>
-    </row>
-    <row r="37" spans="3:48">
+      <c r="P36" s="1"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="30"/>
+      <c r="U36" s="30"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="3"/>
+    </row>
+    <row r="37" spans="3:40">
       <c r="D37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="1"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="1"/>
-      <c r="W37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="1"/>
-      <c r="AH37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="3"/>
-    </row>
-    <row r="38" spans="3:48">
+      <c r="I37" s="4"/>
+      <c r="J37" s="1"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="1"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="30"/>
+      <c r="U37" s="30"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="3"/>
+    </row>
+    <row r="38" spans="3:40">
       <c r="D38" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N38" s="4"/>
-      <c r="O38" s="1"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="1"/>
-      <c r="W38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="1"/>
-      <c r="AH38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="3"/>
-    </row>
-    <row r="39" spans="3:48">
+      <c r="I38" s="4"/>
+      <c r="J38" s="1"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="1"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="3"/>
+    </row>
+    <row r="39" spans="3:40">
       <c r="D39" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="1"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="1"/>
-      <c r="W39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="1"/>
-      <c r="AH39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="1"/>
-      <c r="AU39" s="1"/>
-      <c r="AV39" s="3"/>
-    </row>
-    <row r="40" spans="3:48">
+      <c r="I39" s="4"/>
+      <c r="J39" s="1"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="1"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="3"/>
+    </row>
+    <row r="40" spans="3:40">
       <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N40" s="4"/>
-      <c r="O40" s="1"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="1"/>
-      <c r="W40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="1"/>
-      <c r="AH40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="1"/>
-      <c r="AU40" s="1"/>
-      <c r="AV40" s="3"/>
-    </row>
-    <row r="41" spans="3:48">
+      <c r="I40" s="4"/>
+      <c r="J40" s="1"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="1"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="3"/>
+    </row>
+    <row r="41" spans="3:40">
       <c r="D41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="1"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="1"/>
-      <c r="W41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="1"/>
-      <c r="AH41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="1"/>
-      <c r="AU41" s="1"/>
-      <c r="AV41" s="3"/>
-    </row>
-    <row r="42" spans="3:48">
+      <c r="I41" s="4"/>
+      <c r="J41" s="1"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="1"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="3"/>
+    </row>
+    <row r="42" spans="3:40">
       <c r="D42" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="1"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="1"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="1"/>
-      <c r="AP42" s="4"/>
-      <c r="AQ42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="3"/>
-    </row>
-    <row r="43" spans="3:48">
+      <c r="I42" s="4"/>
+      <c r="J42" s="1"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="1"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="3"/>
+    </row>
+    <row r="43" spans="3:40">
       <c r="D43" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="N43" s="4"/>
-      <c r="O43" s="1"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="1"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="1"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="1"/>
-      <c r="AU43" s="1"/>
-      <c r="AV43" s="3"/>
-    </row>
-    <row r="44" spans="3:48">
+      <c r="I43" s="4"/>
+      <c r="J43" s="1"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="1"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="3"/>
+    </row>
+    <row r="44" spans="3:40">
       <c r="D44" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="1"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="1"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="1"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="1"/>
-      <c r="AU44" s="1"/>
-      <c r="AV44" s="3"/>
-    </row>
-    <row r="45" spans="3:48">
+      <c r="I44" s="4"/>
+      <c r="J44" s="1"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="1"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="3"/>
+    </row>
+    <row r="45" spans="3:40">
       <c r="D45" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="N45" s="4"/>
-      <c r="O45" s="1"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="1"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="1"/>
-      <c r="AP45" s="4"/>
-      <c r="AQ45" s="1"/>
-      <c r="AU45" s="1"/>
-      <c r="AV45" s="3"/>
-    </row>
-    <row r="46" spans="3:48">
+      <c r="I45" s="4"/>
+      <c r="J45" s="1"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="1"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="3"/>
+    </row>
+    <row r="46" spans="3:40">
       <c r="D46" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="1"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="1"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="1"/>
-      <c r="AP46" s="4"/>
-      <c r="AQ46" s="1"/>
-      <c r="AU46" s="1"/>
-      <c r="AV46" s="3"/>
-    </row>
-    <row r="47" spans="3:48">
+      <c r="I46" s="4"/>
+      <c r="J46" s="1"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="1"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="3"/>
+    </row>
+    <row r="47" spans="3:40">
       <c r="D47" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="N47" s="4"/>
-      <c r="O47" s="1"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="1"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="1"/>
-      <c r="AP47" s="4"/>
-      <c r="AQ47" s="1"/>
-      <c r="AU47" s="1"/>
-      <c r="AV47" s="3"/>
-    </row>
-    <row r="48" spans="3:48">
+      <c r="I47" s="4"/>
+      <c r="J47" s="1"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="1"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="3"/>
+    </row>
+    <row r="48" spans="3:40">
       <c r="D48" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="1"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="1"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="1"/>
-      <c r="AP48" s="4"/>
-      <c r="AQ48" s="1"/>
-      <c r="AU48" s="1"/>
-      <c r="AV48" s="3"/>
-    </row>
-    <row r="49" spans="4:48">
+      <c r="I48" s="4"/>
+      <c r="J48" s="1"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="1"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="3"/>
+    </row>
+    <row r="49" spans="4:40">
       <c r="D49" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="1"/>
-      <c r="T49" s="4"/>
-      <c r="U49" s="1"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="1"/>
-      <c r="AP49" s="4"/>
-      <c r="AQ49" s="1"/>
-      <c r="AU49" s="1"/>
-      <c r="AV49" s="3"/>
-    </row>
-    <row r="50" spans="4:48">
+      <c r="I49" s="4"/>
+      <c r="J49" s="1"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="1"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="3"/>
+    </row>
+    <row r="50" spans="4:40">
       <c r="D50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N50" s="4"/>
-      <c r="O50" s="1"/>
-      <c r="T50" s="4"/>
-      <c r="U50" s="1"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="1"/>
-      <c r="AP50" s="4"/>
-      <c r="AQ50" s="1"/>
-      <c r="AU50" s="1"/>
-      <c r="AV50" s="3"/>
-    </row>
-    <row r="51" spans="4:48">
+      <c r="I50" s="4"/>
+      <c r="J50" s="1"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="1"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="1"/>
+      <c r="AI50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="3"/>
+    </row>
+    <row r="51" spans="4:40">
       <c r="D51" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="N51" s="4"/>
-      <c r="O51" s="1"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="1"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="1"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="1"/>
-      <c r="AU51" s="1"/>
-      <c r="AV51" s="3"/>
-    </row>
-    <row r="52" spans="4:48">
+      <c r="I51" s="4"/>
+      <c r="J51" s="1"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="1"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="3"/>
+    </row>
+    <row r="52" spans="4:40">
       <c r="D52" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N52" s="4"/>
-      <c r="O52" s="1"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="1"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="1"/>
-      <c r="AP52" s="4"/>
-      <c r="AQ52" s="1"/>
-      <c r="AU52" s="1"/>
-      <c r="AV52" s="3"/>
-    </row>
-    <row r="53" spans="4:48">
+      <c r="I52" s="4"/>
+      <c r="J52" s="1"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="1"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AM52" s="1"/>
+      <c r="AN52" s="3"/>
+    </row>
+    <row r="53" spans="4:40">
       <c r="D53" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N53" s="4"/>
-      <c r="O53" s="1"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="1"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="1"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="1"/>
-      <c r="AU53" s="1"/>
-      <c r="AV53" s="3"/>
-    </row>
-    <row r="54" spans="4:48">
+      <c r="I53" s="4"/>
+      <c r="J53" s="1"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="1"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="3"/>
+    </row>
+    <row r="54" spans="4:40">
       <c r="D54" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="1"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="1"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="1"/>
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="1"/>
-      <c r="AU54" s="1"/>
-      <c r="AV54" s="3"/>
-    </row>
-    <row r="55" spans="4:48">
+      <c r="I54" s="4"/>
+      <c r="J54" s="1"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="1"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="3"/>
+    </row>
+    <row r="55" spans="4:40">
       <c r="D55" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="1"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="1"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="1"/>
-      <c r="AP55" s="4"/>
-      <c r="AQ55" s="1"/>
-      <c r="AU55" s="1"/>
-      <c r="AV55" s="3"/>
-    </row>
-    <row r="56" spans="4:48">
+      <c r="I55" s="4"/>
+      <c r="J55" s="1"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="1"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="3"/>
+    </row>
+    <row r="56" spans="4:40">
       <c r="D56" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N56" s="4"/>
-      <c r="O56" s="1"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="1"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="1"/>
-      <c r="AP56" s="4"/>
-      <c r="AQ56" s="1"/>
-      <c r="AU56" s="1"/>
-      <c r="AV56" s="3"/>
-    </row>
-    <row r="57" spans="4:48">
+      <c r="I56" s="4"/>
+      <c r="J56" s="1"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="1"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="3"/>
+    </row>
+    <row r="57" spans="4:40">
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="N57" s="4"/>
-      <c r="O57" s="1"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="1"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="1"/>
-      <c r="AP57" s="4"/>
-      <c r="AQ57" s="1"/>
-      <c r="AU57" s="1"/>
-      <c r="AV57" s="3"/>
-    </row>
-    <row r="58" spans="4:48">
+      <c r="I57" s="4"/>
+      <c r="J57" s="1"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="1"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="3"/>
+    </row>
+    <row r="58" spans="4:40">
       <c r="D58" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N58" s="4"/>
-      <c r="O58" s="1"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="1"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="1"/>
-      <c r="AP58" s="4"/>
-      <c r="AQ58" s="1"/>
-      <c r="AU58" s="1"/>
-      <c r="AV58" s="3"/>
-    </row>
-    <row r="59" spans="4:48">
+      <c r="I58" s="4"/>
+      <c r="J58" s="1"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="1"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="3"/>
+    </row>
+    <row r="59" spans="4:40">
       <c r="D59" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="1"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="1"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="1"/>
-      <c r="AP59" s="4"/>
-      <c r="AQ59" s="1"/>
-      <c r="AU59" s="1"/>
-      <c r="AV59" s="3"/>
-    </row>
-    <row r="60" spans="4:48">
+      <c r="I59" s="4"/>
+      <c r="J59" s="1"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="1"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="3"/>
+    </row>
+    <row r="60" spans="4:40">
       <c r="D60" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="N60" s="4"/>
-      <c r="O60" s="1"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="1"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="1"/>
-      <c r="AP60" s="4"/>
-      <c r="AQ60" s="1"/>
-      <c r="AU60" s="1"/>
-      <c r="AV60" s="3"/>
-    </row>
-    <row r="61" spans="4:48">
+      <c r="I60" s="4"/>
+      <c r="J60" s="1"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="1"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="3"/>
+    </row>
+    <row r="61" spans="4:40">
       <c r="D61" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N61" s="4"/>
-      <c r="O61" s="1"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="1"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="1"/>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="3"/>
-    </row>
-    <row r="62" spans="4:48">
+      <c r="I61" s="4"/>
+      <c r="J61" s="1"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="1"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AN61" s="3"/>
+    </row>
+    <row r="62" spans="4:40">
       <c r="D62" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="N62" s="4"/>
-      <c r="O62" s="1"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="1"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="1"/>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="1"/>
-      <c r="AU62" s="1"/>
-      <c r="AV62" s="3"/>
-    </row>
-    <row r="63" spans="4:48">
+      <c r="I62" s="4"/>
+      <c r="J62" s="1"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="1"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="3"/>
+    </row>
+    <row r="63" spans="4:40">
       <c r="D63" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N63" s="4"/>
-      <c r="O63" s="1"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="1"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="1"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="1"/>
-      <c r="AU63" s="1"/>
-      <c r="AV63" s="3"/>
-    </row>
-    <row r="64" spans="4:48">
+      <c r="I63" s="4"/>
+      <c r="J63" s="1"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="1"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="3"/>
+    </row>
+    <row r="64" spans="4:40">
       <c r="D64" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="N64" s="4"/>
-      <c r="O64" s="1"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="1"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="1"/>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="1"/>
-      <c r="AU64" s="1"/>
-      <c r="AV64" s="3"/>
-    </row>
-    <row r="65" spans="4:48">
+      <c r="I64" s="4"/>
+      <c r="J64" s="1"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="1"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="3"/>
+    </row>
+    <row r="65" spans="4:40">
       <c r="D65" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="N65" s="4"/>
-      <c r="O65" s="1"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="1"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="1"/>
-      <c r="AP65" s="4"/>
-      <c r="AQ65" s="1"/>
-      <c r="AU65" s="1"/>
-      <c r="AV65" s="3"/>
-    </row>
-    <row r="66" spans="4:48">
+      <c r="I65" s="4"/>
+      <c r="J65" s="1"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="1"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="3"/>
+    </row>
+    <row r="66" spans="4:40">
       <c r="D66" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="1"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="1"/>
-      <c r="AA66" s="2"/>
-      <c r="AB66" s="1"/>
-      <c r="AP66" s="4"/>
-      <c r="AQ66" s="1"/>
-      <c r="AU66" s="1"/>
-      <c r="AV66" s="3"/>
-    </row>
-    <row r="67" spans="4:48">
+      <c r="I66" s="4"/>
+      <c r="J66" s="1"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="1"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="3"/>
+    </row>
+    <row r="67" spans="4:40">
       <c r="D67" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="N67" s="4"/>
-      <c r="O67" s="1"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="1"/>
-      <c r="AA67" s="2"/>
-      <c r="AB67" s="1"/>
-      <c r="AP67" s="4"/>
-      <c r="AQ67" s="1"/>
-      <c r="AU67" s="1"/>
-      <c r="AV67" s="3"/>
-    </row>
-    <row r="68" spans="4:48">
+      <c r="I67" s="4"/>
+      <c r="J67" s="1"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="1"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AN67" s="3"/>
+    </row>
+    <row r="68" spans="4:40">
       <c r="D68" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="N68" s="4"/>
-      <c r="O68" s="1"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="1"/>
-      <c r="AA68" s="2"/>
-      <c r="AB68" s="1"/>
-      <c r="AP68" s="4"/>
-      <c r="AQ68" s="1"/>
-      <c r="AU68" s="1"/>
-      <c r="AV68" s="3"/>
-    </row>
-    <row r="69" spans="4:48">
+      <c r="I68" s="4"/>
+      <c r="J68" s="1"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="1"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="3"/>
+    </row>
+    <row r="69" spans="4:40">
       <c r="D69" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="N69" s="4"/>
-      <c r="O69" s="1"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="1"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="1"/>
-      <c r="AP69" s="4"/>
-      <c r="AQ69" s="1"/>
-      <c r="AU69" s="1"/>
-      <c r="AV69" s="3"/>
-    </row>
-    <row r="70" spans="4:48">
+      <c r="I69" s="4"/>
+      <c r="J69" s="1"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="1"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="3"/>
+    </row>
+    <row r="70" spans="4:40">
       <c r="D70" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N70" s="4"/>
-      <c r="O70" s="1"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="1"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="1"/>
-      <c r="AP70" s="4"/>
-      <c r="AQ70" s="1"/>
-      <c r="AU70" s="1"/>
-      <c r="AV70" s="3"/>
-    </row>
-    <row r="71" spans="4:48">
+      <c r="I70" s="4"/>
+      <c r="J70" s="1"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="1"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="3"/>
+    </row>
+    <row r="71" spans="4:40">
       <c r="D71" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="N71" s="4"/>
-      <c r="O71" s="1"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="1"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="1"/>
-      <c r="AP71" s="4"/>
-      <c r="AQ71" s="1"/>
-      <c r="AU71" s="1"/>
-      <c r="AV71" s="3"/>
-    </row>
-    <row r="72" spans="4:48">
+      <c r="I71" s="4"/>
+      <c r="J71" s="1"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="1"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="3"/>
+    </row>
+    <row r="72" spans="4:40">
       <c r="D72" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="1"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="1"/>
-      <c r="AA72" s="2"/>
-      <c r="AB72" s="1"/>
-      <c r="AP72" s="4"/>
-      <c r="AQ72" s="1"/>
-      <c r="AU72" s="1"/>
-      <c r="AV72" s="3"/>
-    </row>
-    <row r="73" spans="4:48">
+      <c r="I72" s="4"/>
+      <c r="J72" s="1"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="1"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="3"/>
+    </row>
+    <row r="73" spans="4:40">
       <c r="D73" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N73" s="4"/>
-      <c r="O73" s="1"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="1"/>
-      <c r="AA73" s="2"/>
-      <c r="AB73" s="1"/>
-      <c r="AP73" s="4"/>
-      <c r="AQ73" s="1"/>
-      <c r="AU73" s="1"/>
-      <c r="AV73" s="3"/>
-    </row>
-    <row r="74" spans="4:48">
+      <c r="I73" s="4"/>
+      <c r="J73" s="1"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="1"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="3"/>
+    </row>
+    <row r="74" spans="4:40">
       <c r="D74" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="N74" s="4"/>
-      <c r="O74" s="1"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="1"/>
-      <c r="AA74" s="2"/>
-      <c r="AB74" s="1"/>
-      <c r="AP74" s="4"/>
-      <c r="AQ74" s="1"/>
-      <c r="AU74" s="1"/>
-      <c r="AV74" s="3"/>
-    </row>
-    <row r="75" spans="4:48">
+      <c r="I74" s="4"/>
+      <c r="J74" s="1"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="1"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="3"/>
+    </row>
+    <row r="75" spans="4:40">
       <c r="D75" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="N75" s="4"/>
-      <c r="O75" s="1"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="1"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="1"/>
-      <c r="AP75" s="4"/>
-      <c r="AQ75" s="1"/>
-      <c r="AU75" s="1"/>
-      <c r="AV75" s="3"/>
-    </row>
-    <row r="76" spans="4:48">
+      <c r="I75" s="4"/>
+      <c r="J75" s="1"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="1"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="3"/>
+    </row>
+    <row r="76" spans="4:40">
       <c r="D76" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="N76" s="4"/>
-      <c r="O76" s="1"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="1"/>
-      <c r="AA76" s="2"/>
-      <c r="AB76" s="1"/>
-      <c r="AP76" s="4"/>
-      <c r="AQ76" s="1"/>
-      <c r="AU76" s="1"/>
-      <c r="AV76" s="3"/>
-    </row>
-    <row r="77" spans="4:48">
+      <c r="I76" s="4"/>
+      <c r="J76" s="1"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="1"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="3"/>
+    </row>
+    <row r="77" spans="4:40">
       <c r="D77" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="4"/>
-      <c r="O77" s="1"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="1"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="1"/>
-      <c r="AP77" s="4"/>
-      <c r="AQ77" s="1"/>
-      <c r="AU77" s="1"/>
-      <c r="AV77" s="3"/>
-    </row>
-    <row r="78" spans="4:48">
+      <c r="I77" s="4"/>
+      <c r="J77" s="1"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="1"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="3"/>
+    </row>
+    <row r="78" spans="4:40">
       <c r="D78" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="N78" s="4"/>
-      <c r="O78" s="1"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="1"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="1"/>
-      <c r="AP78" s="4"/>
-      <c r="AQ78" s="1"/>
-      <c r="AU78" s="1"/>
-      <c r="AV78" s="3"/>
-    </row>
-    <row r="79" spans="4:48">
+      <c r="I78" s="4"/>
+      <c r="J78" s="1"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="1"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="3"/>
+    </row>
+    <row r="79" spans="4:40">
       <c r="D79" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="N79" s="4"/>
-      <c r="O79" s="1"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="1"/>
-      <c r="AA79" s="2"/>
-      <c r="AB79" s="1"/>
-      <c r="AP79" s="4"/>
-      <c r="AQ79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="3"/>
-    </row>
-    <row r="80" spans="4:48">
+      <c r="I79" s="4"/>
+      <c r="J79" s="1"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="1"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="3"/>
+    </row>
+    <row r="80" spans="4:40">
       <c r="D80" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="N80" s="4"/>
-      <c r="O80" s="1"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="1"/>
-      <c r="AA80" s="2"/>
-      <c r="AB80" s="1"/>
-      <c r="AP80" s="4"/>
-      <c r="AQ80" s="1"/>
-      <c r="AU80" s="1"/>
-      <c r="AV80" s="3"/>
-    </row>
-    <row r="81" spans="4:48">
+      <c r="I80" s="4"/>
+      <c r="J80" s="1"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="1"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="3"/>
+    </row>
+    <row r="81" spans="4:40">
       <c r="D81" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="N81" s="4"/>
-      <c r="O81" s="1"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="1"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="1"/>
-      <c r="AP81" s="4"/>
-      <c r="AQ81" s="1"/>
-      <c r="AU81" s="1"/>
-      <c r="AV81" s="3"/>
-    </row>
-    <row r="82" spans="4:48">
-      <c r="N82" s="4"/>
-      <c r="O82" s="1"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="1"/>
-      <c r="AA82" s="2"/>
-      <c r="AB82" s="1"/>
-      <c r="AP82" s="4"/>
-      <c r="AQ82" s="1"/>
-      <c r="AU82" s="1"/>
-      <c r="AV82" s="3"/>
-    </row>
-    <row r="83" spans="4:48">
-      <c r="N83" s="4"/>
-      <c r="O83" s="1"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="1"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="1"/>
-      <c r="AP83" s="4"/>
-      <c r="AQ83" s="1"/>
-      <c r="AU83" s="1"/>
-      <c r="AV83" s="3"/>
-    </row>
-    <row r="84" spans="4:48">
-      <c r="N84" s="4"/>
-      <c r="O84" s="1"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="1"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="1"/>
-      <c r="AP84" s="4"/>
-      <c r="AQ84" s="1"/>
-      <c r="AU84" s="1"/>
-      <c r="AV84" s="3"/>
-    </row>
-    <row r="85" spans="4:48">
-      <c r="N85" s="4"/>
-      <c r="O85" s="1"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="1"/>
-      <c r="AA85" s="2"/>
-      <c r="AB85" s="1"/>
-      <c r="AP85" s="4"/>
-      <c r="AQ85" s="1"/>
-      <c r="AU85" s="1"/>
-      <c r="AV85" s="3"/>
-    </row>
-    <row r="86" spans="4:48">
-      <c r="N86" s="4"/>
-      <c r="O86" s="1"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="1"/>
-      <c r="AA86" s="2"/>
-      <c r="AB86" s="1"/>
-      <c r="AP86" s="4"/>
-      <c r="AQ86" s="1"/>
-      <c r="AU86" s="1"/>
-      <c r="AV86" s="3"/>
-    </row>
-    <row r="87" spans="4:48">
-      <c r="N87" s="4"/>
-      <c r="O87" s="1"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="1"/>
-      <c r="AA87" s="2"/>
-      <c r="AB87" s="1"/>
-      <c r="AP87" s="4"/>
-      <c r="AQ87" s="1"/>
-      <c r="AU87" s="1"/>
-      <c r="AV87" s="3"/>
-    </row>
-    <row r="88" spans="4:48">
-      <c r="N88" s="4"/>
-      <c r="O88" s="1"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="1"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="1"/>
-      <c r="AP88" s="4"/>
-      <c r="AQ88" s="1"/>
-      <c r="AU88" s="1"/>
-      <c r="AV88" s="3"/>
-    </row>
-    <row r="89" spans="4:48">
-      <c r="N89" s="4"/>
-      <c r="O89" s="1"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="1"/>
-      <c r="AA89" s="2"/>
-      <c r="AB89" s="1"/>
-      <c r="AP89" s="4"/>
-      <c r="AQ89" s="1"/>
-      <c r="AU89" s="1"/>
-      <c r="AV89" s="3"/>
-    </row>
-    <row r="90" spans="4:48">
-      <c r="N90" s="4"/>
-      <c r="O90" s="1"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="1"/>
-      <c r="AA90" s="2"/>
-      <c r="AB90" s="1"/>
-      <c r="AP90" s="4"/>
-      <c r="AQ90" s="1"/>
-      <c r="AU90" s="1"/>
-      <c r="AV90" s="3"/>
-    </row>
-    <row r="91" spans="4:48">
-      <c r="N91" s="4"/>
-      <c r="O91" s="1"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="1"/>
-      <c r="AA91" s="2"/>
-      <c r="AB91" s="1"/>
-      <c r="AP91" s="4"/>
-      <c r="AQ91" s="1"/>
-      <c r="AU91" s="1"/>
-      <c r="AV91" s="3"/>
-    </row>
-    <row r="92" spans="4:48">
-      <c r="N92" s="4"/>
-      <c r="O92" s="1"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="1"/>
-      <c r="AA92" s="2"/>
-      <c r="AB92" s="1"/>
-      <c r="AP92" s="4"/>
-      <c r="AQ92" s="1"/>
-      <c r="AU92" s="1"/>
-      <c r="AV92" s="3"/>
-    </row>
-    <row r="93" spans="4:48">
-      <c r="N93" s="4"/>
-      <c r="O93" s="1"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="1"/>
-      <c r="AA93" s="2"/>
-      <c r="AB93" s="1"/>
-      <c r="AP93" s="4"/>
-      <c r="AQ93" s="1"/>
-      <c r="AU93" s="1"/>
-      <c r="AV93" s="3"/>
-    </row>
-    <row r="94" spans="4:48">
-      <c r="N94" s="4"/>
-      <c r="O94" s="1"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="1"/>
-      <c r="AA94" s="2"/>
-      <c r="AB94" s="1"/>
-      <c r="AP94" s="4"/>
-      <c r="AQ94" s="1"/>
-      <c r="AU94" s="1"/>
-      <c r="AV94" s="3"/>
-    </row>
-    <row r="95" spans="4:48">
-      <c r="N95" s="4"/>
-      <c r="O95" s="1"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="1"/>
-      <c r="AA95" s="2"/>
-      <c r="AB95" s="1"/>
-      <c r="AP95" s="4"/>
-      <c r="AQ95" s="1"/>
-      <c r="AU95" s="1"/>
-      <c r="AV95" s="3"/>
-    </row>
-    <row r="96" spans="4:48">
-      <c r="N96" s="4"/>
-      <c r="O96" s="1"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="1"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="1"/>
-      <c r="AP96" s="4"/>
-      <c r="AQ96" s="1"/>
-      <c r="AU96" s="1"/>
-      <c r="AV96" s="3"/>
-    </row>
-    <row r="97" spans="14:48">
-      <c r="N97" s="4"/>
-      <c r="O97" s="1"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="1"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="1"/>
-      <c r="AP97" s="4"/>
-      <c r="AQ97" s="1"/>
-      <c r="AU97" s="1"/>
-      <c r="AV97" s="3"/>
-    </row>
-    <row r="98" spans="14:48">
-      <c r="N98" s="4"/>
-      <c r="O98" s="1"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="1"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="1"/>
-      <c r="AP98" s="4"/>
-      <c r="AQ98" s="1"/>
-      <c r="AU98" s="1"/>
-      <c r="AV98" s="3"/>
-    </row>
-    <row r="99" spans="14:48">
-      <c r="N99" s="4"/>
-      <c r="O99" s="1"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="1"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="1"/>
-      <c r="AP99" s="4"/>
-      <c r="AQ99" s="1"/>
-      <c r="AU99" s="1"/>
-      <c r="AV99" s="3"/>
-    </row>
-    <row r="100" spans="14:48">
-      <c r="N100" s="4"/>
-      <c r="O100" s="1"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="1"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="1"/>
-      <c r="AP100" s="4"/>
-      <c r="AQ100" s="1"/>
-      <c r="AU100" s="1"/>
-      <c r="AV100" s="3"/>
-    </row>
-    <row r="101" spans="14:48">
-      <c r="N101" s="4"/>
-      <c r="O101" s="1"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="1"/>
-      <c r="AA101" s="2"/>
-      <c r="AB101" s="1"/>
-      <c r="AP101" s="4"/>
-      <c r="AQ101" s="1"/>
-      <c r="AU101" s="1"/>
-      <c r="AV101" s="3"/>
-    </row>
-    <row r="102" spans="14:48">
-      <c r="N102" s="4"/>
-      <c r="O102" s="1"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="1"/>
-      <c r="AA102" s="2"/>
-      <c r="AB102" s="1"/>
-      <c r="AP102" s="4"/>
-      <c r="AQ102" s="1"/>
-      <c r="AU102" s="1"/>
-      <c r="AV102" s="3"/>
-    </row>
-    <row r="103" spans="14:48">
-      <c r="N103" s="4"/>
-      <c r="O103" s="1"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="1"/>
-      <c r="AA103" s="2"/>
-      <c r="AB103" s="1"/>
-      <c r="AP103" s="4"/>
-      <c r="AQ103" s="1"/>
-      <c r="AU103" s="1"/>
-      <c r="AV103" s="3"/>
-    </row>
-    <row r="104" spans="14:48">
-      <c r="N104" s="4"/>
-      <c r="O104" s="1"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="1"/>
-      <c r="AA104" s="2"/>
-      <c r="AB104" s="1"/>
-      <c r="AP104" s="4"/>
-      <c r="AQ104" s="1"/>
-      <c r="AU104" s="1"/>
-      <c r="AV104" s="3"/>
-    </row>
-    <row r="105" spans="14:48">
-      <c r="N105" s="4"/>
-      <c r="O105" s="1"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="1"/>
-      <c r="AA105" s="2"/>
-      <c r="AB105" s="1"/>
-      <c r="AP105" s="4"/>
-      <c r="AQ105" s="1"/>
-      <c r="AU105" s="1"/>
-      <c r="AV105" s="3"/>
-    </row>
-    <row r="106" spans="14:48">
-      <c r="N106" s="4"/>
-      <c r="O106" s="1"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="1"/>
-      <c r="AA106" s="2"/>
-      <c r="AB106" s="1"/>
-      <c r="AP106" s="4"/>
-      <c r="AQ106" s="1"/>
-      <c r="AU106" s="1"/>
-      <c r="AV106" s="3"/>
-    </row>
-    <row r="107" spans="14:48">
-      <c r="N107" s="4"/>
-      <c r="O107" s="1"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="1"/>
-      <c r="AA107" s="2"/>
-      <c r="AB107" s="1"/>
-      <c r="AP107" s="4"/>
-      <c r="AQ107" s="1"/>
-      <c r="AU107" s="1"/>
-      <c r="AV107" s="3"/>
-    </row>
-    <row r="108" spans="14:48">
-      <c r="N108" s="4"/>
-      <c r="O108" s="1"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="1"/>
-      <c r="AA108" s="2"/>
-      <c r="AB108" s="1"/>
-      <c r="AP108" s="4"/>
-      <c r="AQ108" s="1"/>
-      <c r="AU108" s="1"/>
-      <c r="AV108" s="3"/>
-    </row>
-    <row r="109" spans="14:48">
-      <c r="N109" s="4"/>
-      <c r="O109" s="1"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="1"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="1"/>
-      <c r="AP109" s="4"/>
-      <c r="AQ109" s="1"/>
-      <c r="AU109" s="1"/>
-      <c r="AV109" s="3"/>
-    </row>
-    <row r="110" spans="14:48">
-      <c r="N110" s="4"/>
-      <c r="O110" s="1"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="1"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="1"/>
-      <c r="AP110" s="4"/>
-      <c r="AQ110" s="1"/>
-      <c r="AU110" s="1"/>
-      <c r="AV110" s="3"/>
-    </row>
-    <row r="111" spans="14:48">
-      <c r="N111" s="4"/>
-      <c r="O111" s="1"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="1"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="1"/>
-      <c r="AP111" s="4"/>
-      <c r="AQ111" s="1"/>
-      <c r="AU111" s="1"/>
-      <c r="AV111" s="3"/>
-    </row>
-    <row r="112" spans="14:48">
-      <c r="N112" s="4"/>
-      <c r="O112" s="1"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="1"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="1"/>
-      <c r="AP112" s="4"/>
-      <c r="AQ112" s="1"/>
-      <c r="AU112" s="1"/>
-      <c r="AV112" s="3"/>
-    </row>
-    <row r="113" spans="14:48">
-      <c r="N113" s="4"/>
-      <c r="O113" s="1"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="1"/>
-      <c r="AA113" s="2"/>
-      <c r="AB113" s="1"/>
-      <c r="AP113" s="4"/>
-      <c r="AQ113" s="1"/>
-      <c r="AU113" s="1"/>
-      <c r="AV113" s="3"/>
-    </row>
-    <row r="114" spans="14:48">
-      <c r="N114" s="4"/>
-      <c r="O114" s="1"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="1"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="1"/>
-      <c r="AP114" s="4"/>
-      <c r="AQ114" s="1"/>
-      <c r="AU114" s="1"/>
-      <c r="AV114" s="3"/>
-    </row>
-    <row r="115" spans="14:48">
-      <c r="N115" s="4"/>
-      <c r="O115" s="1"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="1"/>
-      <c r="AA115" s="2"/>
-      <c r="AB115" s="1"/>
-      <c r="AP115" s="4"/>
-      <c r="AQ115" s="1"/>
-      <c r="AU115" s="1"/>
-      <c r="AV115" s="3"/>
-    </row>
-    <row r="116" spans="14:48">
-      <c r="N116" s="4"/>
-      <c r="O116" s="1"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="1"/>
-      <c r="AA116" s="2"/>
-      <c r="AB116" s="1"/>
-      <c r="AP116" s="4"/>
-      <c r="AQ116" s="1"/>
-      <c r="AU116" s="1"/>
-      <c r="AV116" s="3"/>
-    </row>
-    <row r="117" spans="14:48">
-      <c r="N117" s="4"/>
-      <c r="O117" s="1"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="1"/>
-      <c r="AA117" s="2"/>
-      <c r="AB117" s="1"/>
-      <c r="AP117" s="4"/>
-      <c r="AQ117" s="1"/>
-      <c r="AU117" s="1"/>
-      <c r="AV117" s="3"/>
-    </row>
-    <row r="118" spans="14:48">
-      <c r="N118" s="4"/>
-      <c r="O118" s="1"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="1"/>
-      <c r="AA118" s="2"/>
-      <c r="AB118" s="1"/>
-      <c r="AP118" s="4"/>
-      <c r="AQ118" s="1"/>
-      <c r="AU118" s="1"/>
-      <c r="AV118" s="3"/>
-    </row>
-    <row r="119" spans="14:48">
-      <c r="N119" s="4"/>
-      <c r="O119" s="1"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="1"/>
-      <c r="AA119" s="2"/>
-      <c r="AB119" s="1"/>
-      <c r="AP119" s="4"/>
-      <c r="AQ119" s="1"/>
-      <c r="AU119" s="1"/>
-      <c r="AV119" s="3"/>
-    </row>
-    <row r="120" spans="14:48">
-      <c r="N120" s="4"/>
-      <c r="O120" s="1"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="1"/>
-      <c r="AA120" s="2"/>
-      <c r="AB120" s="1"/>
-      <c r="AP120" s="4"/>
-      <c r="AQ120" s="1"/>
-      <c r="AU120" s="1"/>
-      <c r="AV120" s="3"/>
-    </row>
-    <row r="121" spans="14:48">
-      <c r="N121" s="4"/>
-      <c r="O121" s="1"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="1"/>
-      <c r="AA121" s="2"/>
-      <c r="AB121" s="1"/>
-      <c r="AP121" s="4"/>
-      <c r="AQ121" s="1"/>
-      <c r="AU121" s="1"/>
-      <c r="AV121" s="3"/>
-    </row>
-    <row r="122" spans="14:48">
-      <c r="N122" s="4"/>
-      <c r="O122" s="1"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="1"/>
-      <c r="AA122" s="2"/>
-      <c r="AB122" s="1"/>
-      <c r="AP122" s="4"/>
-      <c r="AQ122" s="1"/>
-      <c r="AU122" s="1"/>
-      <c r="AV122" s="3"/>
-    </row>
-    <row r="123" spans="14:48">
-      <c r="N123" s="4"/>
-      <c r="O123" s="1"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="1"/>
-      <c r="AA123" s="2"/>
-      <c r="AB123" s="1"/>
-      <c r="AP123" s="4"/>
-      <c r="AQ123" s="1"/>
-      <c r="AU123" s="1"/>
-      <c r="AV123" s="3"/>
-    </row>
-    <row r="124" spans="14:48">
-      <c r="N124" s="4"/>
-      <c r="O124" s="1"/>
-      <c r="T124" s="4"/>
-      <c r="U124" s="1"/>
-      <c r="AA124" s="2"/>
-      <c r="AB124" s="1"/>
-      <c r="AP124" s="4"/>
-      <c r="AQ124" s="1"/>
-      <c r="AU124" s="1"/>
-      <c r="AV124" s="3"/>
-    </row>
-    <row r="125" spans="14:48">
-      <c r="N125" s="4"/>
-      <c r="O125" s="1"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="1"/>
-      <c r="AA125" s="2"/>
-      <c r="AB125" s="1"/>
-      <c r="AP125" s="4"/>
-      <c r="AQ125" s="1"/>
-      <c r="AU125" s="1"/>
-      <c r="AV125" s="3"/>
-    </row>
-    <row r="126" spans="14:48">
-      <c r="N126" s="4"/>
-      <c r="O126" s="1"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="1"/>
-      <c r="AA126" s="2"/>
-      <c r="AB126" s="1"/>
-      <c r="AP126" s="4"/>
-      <c r="AQ126" s="1"/>
-      <c r="AU126" s="1"/>
-      <c r="AV126" s="3"/>
-    </row>
-    <row r="127" spans="14:48">
-      <c r="N127" s="4"/>
-      <c r="O127" s="1"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="1"/>
-      <c r="AA127" s="2"/>
-      <c r="AB127" s="1"/>
-      <c r="AP127" s="4"/>
-      <c r="AQ127" s="1"/>
-      <c r="AU127" s="1"/>
-      <c r="AV127" s="3"/>
-    </row>
-    <row r="128" spans="14:48">
-      <c r="N128" s="4"/>
-      <c r="O128" s="1"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="1"/>
-      <c r="AA128" s="2"/>
-      <c r="AB128" s="1"/>
-      <c r="AP128" s="4"/>
-      <c r="AQ128" s="1"/>
-      <c r="AU128" s="1"/>
-      <c r="AV128" s="3"/>
-    </row>
-    <row r="129" spans="14:48">
-      <c r="N129" s="4"/>
-      <c r="O129" s="1"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="1"/>
-      <c r="AA129" s="2"/>
-      <c r="AB129" s="1"/>
-      <c r="AP129" s="4"/>
-      <c r="AQ129" s="1"/>
-      <c r="AU129" s="1"/>
-      <c r="AV129" s="3"/>
-    </row>
-    <row r="130" spans="14:48">
-      <c r="N130" s="4"/>
-      <c r="O130" s="1"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="1"/>
-      <c r="AA130" s="2"/>
-      <c r="AB130" s="1"/>
-      <c r="AP130" s="4"/>
-      <c r="AQ130" s="1"/>
-      <c r="AU130" s="1"/>
-      <c r="AV130" s="3"/>
-    </row>
-    <row r="131" spans="14:48">
-      <c r="N131" s="4"/>
-      <c r="O131" s="1"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="1"/>
-      <c r="AA131" s="2"/>
-      <c r="AB131" s="1"/>
-      <c r="AP131" s="4"/>
-      <c r="AQ131" s="1"/>
-      <c r="AU131" s="1"/>
-      <c r="AV131" s="3"/>
-    </row>
-    <row r="132" spans="14:48">
-      <c r="N132" s="4"/>
-      <c r="O132" s="1"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="1"/>
-      <c r="AA132" s="2"/>
-      <c r="AB132" s="1"/>
-      <c r="AP132" s="4"/>
-      <c r="AQ132" s="1"/>
-      <c r="AU132" s="1"/>
-      <c r="AV132" s="3"/>
-    </row>
-    <row r="133" spans="14:48">
-      <c r="N133" s="4"/>
-      <c r="O133" s="1"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="1"/>
-      <c r="AA133" s="2"/>
-      <c r="AB133" s="1"/>
-      <c r="AP133" s="4"/>
-      <c r="AQ133" s="1"/>
-      <c r="AU133" s="1"/>
-      <c r="AV133" s="3"/>
-    </row>
-    <row r="134" spans="14:48">
-      <c r="AT134" s="1"/>
-      <c r="AU134" s="4"/>
-    </row>
-    <row r="135" spans="14:48">
-      <c r="AT135" s="1"/>
-      <c r="AU135" s="4"/>
-    </row>
-    <row r="136" spans="14:48">
-      <c r="AT136" s="1"/>
-      <c r="AU136" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="1"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="1"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AN81" s="3"/>
+    </row>
+    <row r="82" spans="4:40">
+      <c r="I82" s="4"/>
+      <c r="J82" s="1"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="1"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AM82" s="1"/>
+      <c r="AN82" s="3"/>
+    </row>
+    <row r="83" spans="4:40">
+      <c r="I83" s="4"/>
+      <c r="J83" s="1"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="1"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AN83" s="3"/>
+    </row>
+    <row r="84" spans="4:40">
+      <c r="I84" s="4"/>
+      <c r="J84" s="1"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="1"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="1"/>
+      <c r="AI84" s="1"/>
+      <c r="AM84" s="1"/>
+      <c r="AN84" s="3"/>
+    </row>
+    <row r="85" spans="4:40">
+      <c r="I85" s="4"/>
+      <c r="J85" s="1"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="1"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AN85" s="3"/>
+    </row>
+    <row r="86" spans="4:40">
+      <c r="I86" s="4"/>
+      <c r="J86" s="1"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="1"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="1"/>
+      <c r="AI86" s="1"/>
+      <c r="AM86" s="1"/>
+      <c r="AN86" s="3"/>
+    </row>
+    <row r="87" spans="4:40">
+      <c r="I87" s="4"/>
+      <c r="J87" s="1"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="1"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AN87" s="3"/>
+    </row>
+    <row r="88" spans="4:40">
+      <c r="I88" s="4"/>
+      <c r="J88" s="1"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="1"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="1"/>
+      <c r="AI88" s="1"/>
+      <c r="AM88" s="1"/>
+      <c r="AN88" s="3"/>
+    </row>
+    <row r="89" spans="4:40">
+      <c r="I89" s="4"/>
+      <c r="J89" s="1"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="1"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="1"/>
+      <c r="AI89" s="1"/>
+      <c r="AM89" s="1"/>
+      <c r="AN89" s="3"/>
+    </row>
+    <row r="90" spans="4:40">
+      <c r="I90" s="4"/>
+      <c r="J90" s="1"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="1"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="1"/>
+      <c r="AI90" s="1"/>
+      <c r="AM90" s="1"/>
+      <c r="AN90" s="3"/>
+    </row>
+    <row r="91" spans="4:40">
+      <c r="I91" s="4"/>
+      <c r="J91" s="1"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="1"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="1"/>
+      <c r="AI91" s="1"/>
+      <c r="AM91" s="1"/>
+      <c r="AN91" s="3"/>
+    </row>
+    <row r="92" spans="4:40">
+      <c r="I92" s="4"/>
+      <c r="J92" s="1"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="1"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="1"/>
+      <c r="AI92" s="1"/>
+      <c r="AM92" s="1"/>
+      <c r="AN92" s="3"/>
+    </row>
+    <row r="93" spans="4:40">
+      <c r="I93" s="4"/>
+      <c r="J93" s="1"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="1"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AM93" s="1"/>
+      <c r="AN93" s="3"/>
+    </row>
+    <row r="94" spans="4:40">
+      <c r="I94" s="4"/>
+      <c r="J94" s="1"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="1"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="1"/>
+      <c r="AI94" s="1"/>
+      <c r="AM94" s="1"/>
+      <c r="AN94" s="3"/>
+    </row>
+    <row r="95" spans="4:40">
+      <c r="I95" s="4"/>
+      <c r="J95" s="1"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="1"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="1"/>
+      <c r="AI95" s="1"/>
+      <c r="AM95" s="1"/>
+      <c r="AN95" s="3"/>
+    </row>
+    <row r="96" spans="4:40">
+      <c r="I96" s="4"/>
+      <c r="J96" s="1"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="1"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="3"/>
+    </row>
+    <row r="97" spans="9:40">
+      <c r="I97" s="4"/>
+      <c r="J97" s="1"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="1"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="1"/>
+      <c r="AI97" s="1"/>
+      <c r="AM97" s="1"/>
+      <c r="AN97" s="3"/>
+    </row>
+    <row r="98" spans="9:40">
+      <c r="I98" s="4"/>
+      <c r="J98" s="1"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="1"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="1"/>
+      <c r="AI98" s="1"/>
+      <c r="AM98" s="1"/>
+      <c r="AN98" s="3"/>
+    </row>
+    <row r="99" spans="9:40">
+      <c r="I99" s="4"/>
+      <c r="J99" s="1"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="1"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="1"/>
+      <c r="AI99" s="1"/>
+      <c r="AM99" s="1"/>
+      <c r="AN99" s="3"/>
+    </row>
+    <row r="100" spans="9:40">
+      <c r="I100" s="4"/>
+      <c r="J100" s="1"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="1"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="1"/>
+      <c r="AI100" s="1"/>
+      <c r="AM100" s="1"/>
+      <c r="AN100" s="3"/>
+    </row>
+    <row r="101" spans="9:40">
+      <c r="I101" s="4"/>
+      <c r="J101" s="1"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="1"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AM101" s="1"/>
+      <c r="AN101" s="3"/>
+    </row>
+    <row r="102" spans="9:40">
+      <c r="I102" s="4"/>
+      <c r="J102" s="1"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="1"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AM102" s="1"/>
+      <c r="AN102" s="3"/>
+    </row>
+    <row r="103" spans="9:40">
+      <c r="I103" s="4"/>
+      <c r="J103" s="1"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="1"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AM103" s="1"/>
+      <c r="AN103" s="3"/>
+    </row>
+    <row r="104" spans="9:40">
+      <c r="I104" s="4"/>
+      <c r="J104" s="1"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="1"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AM104" s="1"/>
+      <c r="AN104" s="3"/>
+    </row>
+    <row r="105" spans="9:40">
+      <c r="I105" s="4"/>
+      <c r="J105" s="1"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="1"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AM105" s="1"/>
+      <c r="AN105" s="3"/>
+    </row>
+    <row r="106" spans="9:40">
+      <c r="I106" s="4"/>
+      <c r="J106" s="1"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="1"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AM106" s="1"/>
+      <c r="AN106" s="3"/>
+    </row>
+    <row r="107" spans="9:40">
+      <c r="I107" s="4"/>
+      <c r="J107" s="1"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="1"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AM107" s="1"/>
+      <c r="AN107" s="3"/>
+    </row>
+    <row r="108" spans="9:40">
+      <c r="I108" s="4"/>
+      <c r="J108" s="1"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="1"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AM108" s="1"/>
+      <c r="AN108" s="3"/>
+    </row>
+    <row r="109" spans="9:40">
+      <c r="I109" s="4"/>
+      <c r="J109" s="1"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="1"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AM109" s="1"/>
+      <c r="AN109" s="3"/>
+    </row>
+    <row r="110" spans="9:40">
+      <c r="I110" s="4"/>
+      <c r="J110" s="1"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="1"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AM110" s="1"/>
+      <c r="AN110" s="3"/>
+    </row>
+    <row r="111" spans="9:40">
+      <c r="I111" s="4"/>
+      <c r="J111" s="1"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="1"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AM111" s="1"/>
+      <c r="AN111" s="3"/>
+    </row>
+    <row r="112" spans="9:40">
+      <c r="I112" s="4"/>
+      <c r="J112" s="1"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="1"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AM112" s="1"/>
+      <c r="AN112" s="3"/>
+    </row>
+    <row r="113" spans="9:40">
+      <c r="I113" s="4"/>
+      <c r="J113" s="1"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="1"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AM113" s="1"/>
+      <c r="AN113" s="3"/>
+    </row>
+    <row r="114" spans="9:40">
+      <c r="I114" s="4"/>
+      <c r="J114" s="1"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="1"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AM114" s="1"/>
+      <c r="AN114" s="3"/>
+    </row>
+    <row r="115" spans="9:40">
+      <c r="I115" s="4"/>
+      <c r="J115" s="1"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="1"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AM115" s="1"/>
+      <c r="AN115" s="3"/>
+    </row>
+    <row r="116" spans="9:40">
+      <c r="I116" s="4"/>
+      <c r="J116" s="1"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="1"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="3"/>
+    </row>
+    <row r="117" spans="9:40">
+      <c r="I117" s="4"/>
+      <c r="J117" s="1"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="1"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AM117" s="1"/>
+      <c r="AN117" s="3"/>
+    </row>
+    <row r="118" spans="9:40">
+      <c r="I118" s="4"/>
+      <c r="J118" s="1"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="1"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="3"/>
+    </row>
+    <row r="119" spans="9:40">
+      <c r="I119" s="4"/>
+      <c r="J119" s="1"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="1"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="3"/>
+    </row>
+    <row r="120" spans="9:40">
+      <c r="I120" s="4"/>
+      <c r="J120" s="1"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="1"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="3"/>
+    </row>
+    <row r="121" spans="9:40">
+      <c r="I121" s="4"/>
+      <c r="J121" s="1"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="1"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="3"/>
+    </row>
+    <row r="122" spans="9:40">
+      <c r="I122" s="4"/>
+      <c r="J122" s="1"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="1"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AM122" s="1"/>
+      <c r="AN122" s="3"/>
+    </row>
+    <row r="123" spans="9:40">
+      <c r="I123" s="4"/>
+      <c r="J123" s="1"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="1"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="3"/>
+    </row>
+    <row r="124" spans="9:40">
+      <c r="I124" s="4"/>
+      <c r="J124" s="1"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="1"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="1"/>
+      <c r="AI124" s="1"/>
+      <c r="AM124" s="1"/>
+      <c r="AN124" s="3"/>
+    </row>
+    <row r="125" spans="9:40">
+      <c r="I125" s="4"/>
+      <c r="J125" s="1"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="1"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="1"/>
+      <c r="AI125" s="1"/>
+      <c r="AM125" s="1"/>
+      <c r="AN125" s="3"/>
+    </row>
+    <row r="126" spans="9:40">
+      <c r="I126" s="4"/>
+      <c r="J126" s="1"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="1"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AM126" s="1"/>
+      <c r="AN126" s="3"/>
+    </row>
+    <row r="127" spans="9:40">
+      <c r="I127" s="4"/>
+      <c r="J127" s="1"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="1"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AM127" s="1"/>
+      <c r="AN127" s="3"/>
+    </row>
+    <row r="128" spans="9:40">
+      <c r="I128" s="4"/>
+      <c r="J128" s="1"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="1"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="1"/>
+      <c r="AI128" s="1"/>
+      <c r="AM128" s="1"/>
+      <c r="AN128" s="3"/>
+    </row>
+    <row r="129" spans="9:40">
+      <c r="I129" s="4"/>
+      <c r="J129" s="1"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="1"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="1"/>
+      <c r="AI129" s="1"/>
+      <c r="AM129" s="1"/>
+      <c r="AN129" s="3"/>
+    </row>
+    <row r="130" spans="9:40">
+      <c r="I130" s="4"/>
+      <c r="J130" s="1"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="1"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="1"/>
+      <c r="AI130" s="1"/>
+      <c r="AM130" s="1"/>
+      <c r="AN130" s="3"/>
+    </row>
+    <row r="131" spans="9:40">
+      <c r="I131" s="4"/>
+      <c r="J131" s="1"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="1"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="1"/>
+      <c r="AI131" s="1"/>
+      <c r="AM131" s="1"/>
+      <c r="AN131" s="3"/>
+    </row>
+    <row r="132" spans="9:40">
+      <c r="I132" s="4"/>
+      <c r="J132" s="1"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="1"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="1"/>
+      <c r="AI132" s="1"/>
+      <c r="AM132" s="1"/>
+      <c r="AN132" s="3"/>
+    </row>
+    <row r="133" spans="9:40">
+      <c r="I133" s="4"/>
+      <c r="J133" s="1"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="1"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="1"/>
+      <c r="AI133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="3"/>
+    </row>
+    <row r="134" spans="9:40">
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="4"/>
+    </row>
+    <row r="135" spans="9:40">
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="4"/>
+    </row>
+    <row r="136" spans="9:40">
+      <c r="AL136" s="1"/>
+      <c r="AM136" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="AN18:AP20"/>
-    <mergeCell ref="AQ18:AQ20"/>
-    <mergeCell ref="AR18:AR20"/>
-    <mergeCell ref="AS18:AS20"/>
-    <mergeCell ref="AT18:AT20"/>
-    <mergeCell ref="AT21:AT27"/>
-    <mergeCell ref="AR21:AR27"/>
-    <mergeCell ref="AS21:AS27"/>
-    <mergeCell ref="AP21:AP27"/>
-    <mergeCell ref="AU21:AU27"/>
-    <mergeCell ref="AQ21:AQ27"/>
-    <mergeCell ref="I21:I34"/>
-    <mergeCell ref="J21:J34"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="O21:O27"/>
-    <mergeCell ref="Z32:Z41"/>
-    <mergeCell ref="K28:K37"/>
+  <mergeCells count="50">
+    <mergeCell ref="B18:AH20"/>
+    <mergeCell ref="P21:P27"/>
+    <mergeCell ref="Q21:Q27"/>
+    <mergeCell ref="V21:V27"/>
+    <mergeCell ref="W21:W27"/>
+    <mergeCell ref="AH21:AH27"/>
+    <mergeCell ref="Z21:Z27"/>
+    <mergeCell ref="Y21:Y27"/>
+    <mergeCell ref="AF21:AF27"/>
+    <mergeCell ref="AG21:AG27"/>
     <mergeCell ref="AA21:AA27"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="AJ32:AJ41"/>
-    <mergeCell ref="W21:W30"/>
-    <mergeCell ref="W32:W41"/>
-    <mergeCell ref="AH32:AH41"/>
-    <mergeCell ref="Z21:Z30"/>
-    <mergeCell ref="AH21:AH30"/>
-    <mergeCell ref="S21:S27"/>
-    <mergeCell ref="Q21:Q27"/>
-    <mergeCell ref="T21:T27"/>
-    <mergeCell ref="G21:G34"/>
-    <mergeCell ref="H21:H34"/>
+    <mergeCell ref="AB21:AB27"/>
+    <mergeCell ref="AC21:AC27"/>
+    <mergeCell ref="AE21:AE27"/>
+    <mergeCell ref="U21:U30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="G21:G27"/>
     <mergeCell ref="A21:A27"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="D21:D27"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="F21:F27"/>
     <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B18:AM20"/>
-    <mergeCell ref="AG21:AG27"/>
-    <mergeCell ref="P21:P27"/>
-    <mergeCell ref="R21:R27"/>
-    <mergeCell ref="AN21:AN27"/>
-    <mergeCell ref="AO21:AO27"/>
-    <mergeCell ref="U21:U27"/>
-    <mergeCell ref="V21:V27"/>
+    <mergeCell ref="AD21:AD27"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="M21:M27"/>
     <mergeCell ref="X21:X27"/>
-    <mergeCell ref="Y21:Y27"/>
+    <mergeCell ref="U32:U41"/>
+    <mergeCell ref="R21:R30"/>
+    <mergeCell ref="R32:R41"/>
+    <mergeCell ref="T32:T41"/>
+    <mergeCell ref="S21:S30"/>
+    <mergeCell ref="T21:T30"/>
+    <mergeCell ref="N21:N27"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="O21:O27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="S32:S41"/>
+    <mergeCell ref="AL21:AL27"/>
+    <mergeCell ref="AJ21:AJ27"/>
+    <mergeCell ref="AK21:AK27"/>
     <mergeCell ref="AM21:AM27"/>
-    <mergeCell ref="AC21:AC27"/>
-    <mergeCell ref="AB21:AB27"/>
-    <mergeCell ref="AK21:AK27"/>
-    <mergeCell ref="AL21:AL27"/>
-    <mergeCell ref="AD21:AD27"/>
-    <mergeCell ref="AE21:AE27"/>
-    <mergeCell ref="AF21:AF27"/>
     <mergeCell ref="AI21:AI27"/>
-    <mergeCell ref="AJ21:AJ30"/>
+    <mergeCell ref="AI18:AI20"/>
+    <mergeCell ref="AJ18:AJ20"/>
+    <mergeCell ref="AK18:AK20"/>
+    <mergeCell ref="AL18:AL20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4627,8 +4943,8 @@
   </sheetPr>
   <dimension ref="A1:BB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4695,22 +5011,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:54" ht="21">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:54" ht="21">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Z3" s="1"/>
     </row>
@@ -4728,37 +5044,37 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>6</v>
@@ -4773,25 +5089,25 @@
         <v>24</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="Y6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>14</v>
@@ -4800,13 +5116,13 @@
         <v>26</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AF6" s="11" t="s">
         <v>18</v>
@@ -4815,13 +5131,13 @@
         <v>27</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AK6" s="11" t="s">
         <v>19</v>
@@ -4833,13 +5149,13 @@
         <v>28</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>12</v>
@@ -5297,672 +5613,672 @@
       <c r="BB16" s="3"/>
     </row>
     <row r="17" spans="1:54" ht="11.25" customHeight="1">
-      <c r="B17" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="43"/>
-      <c r="AC17" s="43"/>
-      <c r="AD17" s="43"/>
-      <c r="AE17" s="43"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="43"/>
-      <c r="AH17" s="43"/>
-      <c r="AI17" s="43"/>
-      <c r="AJ17" s="43"/>
-      <c r="AK17" s="43"/>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="43"/>
-      <c r="AO17" s="43"/>
-      <c r="AP17" s="43"/>
-      <c r="AQ17" s="43"/>
-      <c r="AR17" s="43"/>
-      <c r="AS17" s="43"/>
-      <c r="AT17" s="43"/>
-      <c r="AU17" s="43"/>
-      <c r="AV17" s="43"/>
-      <c r="AW17" s="43"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ17" s="52" t="s">
-        <v>163</v>
+      <c r="B17" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+      <c r="AP17" s="42"/>
+      <c r="AQ17" s="42"/>
+      <c r="AR17" s="42"/>
+      <c r="AS17" s="42"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="43"/>
+      <c r="AY17" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ17" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
     </row>
     <row r="18" spans="1:54" ht="11.25" customHeight="1">
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="46"/>
-      <c r="AI18" s="46"/>
-      <c r="AJ18" s="46"/>
-      <c r="AK18" s="46"/>
-      <c r="AL18" s="46"/>
-      <c r="AM18" s="46"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="46"/>
-      <c r="AQ18" s="46"/>
-      <c r="AR18" s="46"/>
-      <c r="AS18" s="46"/>
-      <c r="AT18" s="46"/>
-      <c r="AU18" s="46"/>
-      <c r="AV18" s="46"/>
-      <c r="AW18" s="46"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="53"/>
-      <c r="AZ18" s="53"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+      <c r="AM18" s="45"/>
+      <c r="AN18" s="45"/>
+      <c r="AO18" s="45"/>
+      <c r="AP18" s="45"/>
+      <c r="AQ18" s="45"/>
+      <c r="AR18" s="45"/>
+      <c r="AS18" s="45"/>
+      <c r="AT18" s="45"/>
+      <c r="AU18" s="45"/>
+      <c r="AV18" s="45"/>
+      <c r="AW18" s="45"/>
+      <c r="AX18" s="46"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
     </row>
     <row r="19" spans="1:54" ht="11.25" customHeight="1">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="49"/>
-      <c r="AI19" s="49"/>
-      <c r="AJ19" s="49"/>
-      <c r="AK19" s="49"/>
-      <c r="AL19" s="49"/>
-      <c r="AM19" s="49"/>
-      <c r="AN19" s="49"/>
-      <c r="AO19" s="49"/>
-      <c r="AP19" s="49"/>
-      <c r="AQ19" s="49"/>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="54"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="40"/>
+      <c r="AZ19" s="40"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
     </row>
     <row r="20" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A20" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q20" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="R20" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="T20" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="U20" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="V20" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="W20" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="X20" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y20" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z20" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="N20" s="24" t="s">
+      <c r="AA20" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB20" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="O20" s="24" t="s">
+      <c r="AC20" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD20" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE20" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF20" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG20" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="AH20" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI20" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ20" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK20" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL20" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="Q20" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="T20" s="24" t="s">
+      <c r="AM20" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN20" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO20" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP20" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ20" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="U20" s="24" t="s">
+      <c r="AR20" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="V20" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="W20" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="X20" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y20" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z20" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA20" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB20" s="26" t="s">
+      <c r="AS20" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT20" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="AU20" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="AC20" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD20" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE20" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF20" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG20" s="26" t="s">
+      <c r="AV20" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="AH20" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI20" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="AJ20" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK20" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="AL20" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM20" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN20" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO20" s="26" t="s">
+      <c r="AW20" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="AX20" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="AY20" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ20" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA20" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="AP20" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AQ20" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR20" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="AS20" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT20" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="AU20" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="AV20" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="AW20" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX20" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY20" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ20" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA20" s="39" t="s">
-        <v>241</v>
-      </c>
       <c r="BB20" s="3"/>
     </row>
     <row r="21" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="24"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="26"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-      <c r="AE21" s="26"/>
-      <c r="AF21" s="26"/>
-      <c r="AG21" s="26"/>
-      <c r="AH21" s="26"/>
-      <c r="AI21" s="26"/>
-      <c r="AJ21" s="26"/>
-      <c r="AK21" s="26"/>
-      <c r="AL21" s="26"/>
-      <c r="AM21" s="26"/>
-      <c r="AN21" s="26"/>
-      <c r="AO21" s="26"/>
-      <c r="AP21" s="26"/>
-      <c r="AQ21" s="26"/>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="37"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="39"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="34"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34"/>
+      <c r="AJ21" s="34"/>
+      <c r="AK21" s="34"/>
+      <c r="AL21" s="34"/>
+      <c r="AM21" s="34"/>
+      <c r="AN21" s="34"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="34"/>
+      <c r="AW21" s="34"/>
+      <c r="AX21" s="34"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="28"/>
       <c r="BB21" s="3"/>
     </row>
     <row r="22" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="24"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="37"/>
-      <c r="AZ22" s="38"/>
-      <c r="BA22" s="39"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="34"/>
+      <c r="AE22" s="34"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="34"/>
+      <c r="AJ22" s="34"/>
+      <c r="AK22" s="34"/>
+      <c r="AL22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="34"/>
+      <c r="AO22" s="34"/>
+      <c r="AP22" s="34"/>
+      <c r="AQ22" s="34"/>
+      <c r="AR22" s="34"/>
+      <c r="AS22" s="34"/>
+      <c r="AT22" s="34"/>
+      <c r="AU22" s="34"/>
+      <c r="AV22" s="34"/>
+      <c r="AW22" s="34"/>
+      <c r="AX22" s="34"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="28"/>
       <c r="BB22" s="3"/>
     </row>
     <row r="23" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="24"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="37"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="39"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="34"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="34"/>
+      <c r="AE23" s="34"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="34"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
+      <c r="AP23" s="34"/>
+      <c r="AQ23" s="34"/>
+      <c r="AR23" s="34"/>
+      <c r="AS23" s="34"/>
+      <c r="AT23" s="34"/>
+      <c r="AU23" s="34"/>
+      <c r="AV23" s="34"/>
+      <c r="AW23" s="34"/>
+      <c r="AX23" s="34"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="28"/>
       <c r="BB23" s="3"/>
     </row>
     <row r="24" spans="1:54">
-      <c r="A24" s="33"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="37"/>
-      <c r="AZ24" s="38"/>
-      <c r="BA24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="34"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="34"/>
+      <c r="AE24" s="34"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="34"/>
+      <c r="AJ24" s="34"/>
+      <c r="AK24" s="34"/>
+      <c r="AL24" s="34"/>
+      <c r="AM24" s="34"/>
+      <c r="AN24" s="34"/>
+      <c r="AO24" s="34"/>
+      <c r="AP24" s="34"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="34"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="28"/>
       <c r="BB24" s="3"/>
     </row>
     <row r="25" spans="1:54">
-      <c r="A25" s="33"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="26"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="26"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="26"/>
-      <c r="AH25" s="26"/>
-      <c r="AI25" s="26"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="26"/>
-      <c r="AL25" s="26"/>
-      <c r="AM25" s="26"/>
-      <c r="AN25" s="26"/>
-      <c r="AO25" s="26"/>
-      <c r="AP25" s="26"/>
-      <c r="AQ25" s="26"/>
-      <c r="AR25" s="26"/>
-      <c r="AS25" s="26"/>
-      <c r="AT25" s="26"/>
-      <c r="AU25" s="26"/>
-      <c r="AV25" s="26"/>
-      <c r="AW25" s="26"/>
-      <c r="AX25" s="26"/>
-      <c r="AY25" s="37"/>
-      <c r="AZ25" s="38"/>
-      <c r="BA25" s="39"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="34"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
+      <c r="AD25" s="34"/>
+      <c r="AE25" s="34"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="34"/>
+      <c r="AO25" s="34"/>
+      <c r="AP25" s="34"/>
+      <c r="AQ25" s="34"/>
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="34"/>
+      <c r="AT25" s="34"/>
+      <c r="AU25" s="34"/>
+      <c r="AV25" s="34"/>
+      <c r="AW25" s="34"/>
+      <c r="AX25" s="34"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="28"/>
       <c r="BB25" s="3"/>
     </row>
     <row r="26" spans="1:54">
-      <c r="A26" s="34"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26"/>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26"/>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26"/>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26"/>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26"/>
-      <c r="AS26" s="26"/>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26"/>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="37"/>
-      <c r="AZ26" s="38"/>
-      <c r="BA26" s="39"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="34"/>
+      <c r="AE26" s="34"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AJ26" s="34"/>
+      <c r="AK26" s="34"/>
+      <c r="AL26" s="34"/>
+      <c r="AM26" s="34"/>
+      <c r="AN26" s="34"/>
+      <c r="AO26" s="34"/>
+      <c r="AP26" s="34"/>
+      <c r="AQ26" s="34"/>
+      <c r="AR26" s="34"/>
+      <c r="AS26" s="34"/>
+      <c r="AT26" s="34"/>
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="27"/>
+      <c r="BA26" s="28"/>
       <c r="BB26" s="3"/>
     </row>
     <row r="27" spans="1:54">
@@ -6005,21 +6321,21 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="10"/>
       <c r="AF29" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AK29" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AS29" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT29" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV29" s="8" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
@@ -7526,11 +7842,43 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="BA20:BA26"/>
-    <mergeCell ref="AY17:AY19"/>
-    <mergeCell ref="AZ17:AZ19"/>
-    <mergeCell ref="AY20:AY26"/>
-    <mergeCell ref="AZ20:AZ26"/>
+    <mergeCell ref="AX20:AX26"/>
+    <mergeCell ref="B17:AX19"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="U20:U26"/>
+    <mergeCell ref="T20:T26"/>
+    <mergeCell ref="AP20:AP26"/>
+    <mergeCell ref="AR20:AR26"/>
+    <mergeCell ref="AQ20:AQ26"/>
+    <mergeCell ref="AM20:AM26"/>
+    <mergeCell ref="Q20:Q26"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="I20:I26"/>
+    <mergeCell ref="AV20:AV26"/>
+    <mergeCell ref="AW20:AW26"/>
+    <mergeCell ref="V20:V26"/>
+    <mergeCell ref="W20:W26"/>
+    <mergeCell ref="X20:X26"/>
+    <mergeCell ref="AC20:AC26"/>
+    <mergeCell ref="Z20:Z26"/>
+    <mergeCell ref="AA20:AA26"/>
+    <mergeCell ref="Y20:Y26"/>
+    <mergeCell ref="AB20:AB26"/>
+    <mergeCell ref="AG20:AG26"/>
+    <mergeCell ref="AL20:AL26"/>
+    <mergeCell ref="AD20:AD26"/>
+    <mergeCell ref="AE20:AE26"/>
+    <mergeCell ref="AH20:AH26"/>
+    <mergeCell ref="AU20:AU26"/>
     <mergeCell ref="AS20:AS26"/>
     <mergeCell ref="AT20:AT26"/>
     <mergeCell ref="G20:G26"/>
@@ -7547,43 +7895,11 @@
     <mergeCell ref="N20:N26"/>
     <mergeCell ref="O20:O26"/>
     <mergeCell ref="P20:P26"/>
-    <mergeCell ref="AV20:AV26"/>
-    <mergeCell ref="AW20:AW26"/>
-    <mergeCell ref="V20:V26"/>
-    <mergeCell ref="W20:W26"/>
-    <mergeCell ref="X20:X26"/>
-    <mergeCell ref="AC20:AC26"/>
-    <mergeCell ref="Z20:Z26"/>
-    <mergeCell ref="AA20:AA26"/>
-    <mergeCell ref="Y20:Y26"/>
-    <mergeCell ref="AB20:AB26"/>
-    <mergeCell ref="AG20:AG26"/>
-    <mergeCell ref="AL20:AL26"/>
-    <mergeCell ref="AD20:AD26"/>
-    <mergeCell ref="AE20:AE26"/>
-    <mergeCell ref="AH20:AH26"/>
-    <mergeCell ref="AU20:AU26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="AX20:AX26"/>
-    <mergeCell ref="B17:AX19"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="U20:U26"/>
-    <mergeCell ref="T20:T26"/>
-    <mergeCell ref="AP20:AP26"/>
-    <mergeCell ref="AR20:AR26"/>
-    <mergeCell ref="AQ20:AQ26"/>
-    <mergeCell ref="AM20:AM26"/>
-    <mergeCell ref="Q20:Q26"/>
-    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="BA20:BA26"/>
+    <mergeCell ref="AY17:AY19"/>
+    <mergeCell ref="AZ17:AZ19"/>
+    <mergeCell ref="AY20:AY26"/>
+    <mergeCell ref="AZ20:AZ26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7665,22 +7981,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:54" ht="21">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:54" ht="21">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="5" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M3" s="5"/>
       <c r="Z3" s="1"/>
@@ -7709,31 +8025,31 @@
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>4</v>
@@ -8232,185 +8548,185 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1">
-      <c r="B18" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="41" t="s">
+      <c r="B18" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K18" s="23"/>
+      <c r="L18" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="11.25" customHeight="1">
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" ht="11.25" customHeight="1">
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="M18" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="11.25" customHeight="1">
-      <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-    </row>
-    <row r="20" spans="1:13" ht="11.25" customHeight="1">
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="M21" s="38" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="56"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="27"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="56"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="38"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="27"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="56"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="38"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="27"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="56"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="38"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="27"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="56"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="38"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="57"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="38"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="27"/>
     </row>
     <row r="29" spans="1:13">
       <c r="E29" s="17" t="s">
@@ -8454,6 +8770,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="B21:B27"/>
     <mergeCell ref="K21:K27"/>
     <mergeCell ref="B18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -8466,13 +8789,6 @@
     <mergeCell ref="I21:I27"/>
     <mergeCell ref="J21:J27"/>
     <mergeCell ref="H21:H27"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8483,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F55"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F49" sqref="F3:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8526,11 +8842,11 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NF,</v>
+        <v>CD_SITUACAO_NF,</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>54</v>
@@ -8542,14 +8858,14 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" s="15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF,</v>
+        <v>CD_TIPO_NF,</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
@@ -8558,11 +8874,11 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="15" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>NR_REFERENCIA_FISCAL_FATURA,</v>
+        <v>DT_EMISSAO_NF,</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>57</v>
@@ -8574,11 +8890,11 @@
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="15" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>NR_ITEM_NF_FATURA,</v>
+        <v>HR_EMISSAO_NF,</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>58</v>
@@ -8590,14 +8906,14 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" s="15" t="s">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>NR_REFERENCIA_FISCAL_RELATIVA,</v>
+        <v>NR_NF_FATURA,</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
@@ -8606,11 +8922,11 @@
     </row>
     <row r="10" spans="3:13">
       <c r="C10" s="15" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>NR_LINHA_REF_FISCAL_RELATIVA,</v>
+        <v>NR_SERIE_NF_FATURA,</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>58</v>
@@ -8622,11 +8938,11 @@
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="15" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>NR_ITEM_NF,</v>
+        <v>NR_NF_REMESSA,</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>55</v>
@@ -8638,11 +8954,11 @@
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="15" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>CD_ITEM,</v>
+        <v>NR_SERIE_NF_REMESSA,</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>56</v>
@@ -8654,245 +8970,245 @@
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="15" t="s">
-        <v>174</v>
+        <v>39</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>QT_FATURADA,</v>
+        <v>NR_ORDEM,</v>
       </c>
     </row>
     <row r="14" spans="3:13">
       <c r="C14" s="15" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>QT_DEVOLVIDA,</v>
+        <v>CD_TIPO_DOCUMENTO_FISCAL,</v>
       </c>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="15" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NFR_DEVOLUCAO,</v>
+        <v>NR_NF,</v>
       </c>
     </row>
     <row r="16" spans="3:13">
       <c r="C16" s="15" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>VL_UNITARIO_PRODUTO,</v>
+        <v>NR_SERIE_NF,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="15" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL_ITEM,</v>
+        <v>CD_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="15" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PRODUTO,</v>
+        <v>SQ_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="15" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO,</v>
+        <v>DT_SITUACAO_NF,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="15" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>CD_NATUREZA_OPERACAO,</v>
+        <v>CD_CLIENTE_FATURA,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="15" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_NATUREZA_OPERACAO,</v>
+        <v>CD_CLIENTE_ENTREGA,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="15" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_ICMS,</v>
+        <v>CD_STATUS_SEFAZ,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS,</v>
+        <v>VL_PRODUTO,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="15" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_PRODUTO,</v>
+        <v>VL_FRETE,</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="15" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_FRETE,</v>
+        <v>VL_CIF_IMPORTACAO,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="15" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_OUTROS,</v>
+        <v>VL_SEGURO,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_ST,</v>
+        <v>VL_DESPESA,</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="15" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>VL_BASE_IPI,</v>
+        <v>VL_ADICIONAL_IMPORTACAO,</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI,</v>
+        <v>VL_DESPESA_ADUANEIRA,</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="15" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS,</v>
+        <v>VL_DESPESA_FINANCEIRA,</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="15" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_PRODUTO,</v>
+        <v>VL_TOTAL_NF,</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="15" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_FRETE,</v>
+        <v>VL_ICMS,</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="15" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_OUTROS,</v>
+        <v>VL_ICMS_ST,</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_IMPORTACAO,</v>
+        <v>VL_IPI,</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS,</v>
+        <v>VL_PIS,</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="15" t="s">
-        <v>182</v>
+        <v>18</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_PRODUTO,</v>
+        <v>VL_PIS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="16" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_FRETE,</v>
+        <v>VL_COFINS,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="15" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_OUTROS,</v>
+        <v>VL_COFINS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_IMPORTACAO,</v>
+        <v>VL_CSLL,</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -8906,83 +9222,83 @@
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL,</v>
+        <v>VL_DESCONTO,</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="15" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_PRODUTO,</v>
+        <v>NR_PEDIDO,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="15" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_FRETE,</v>
+        <v>NR_ENTREGA,</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="15" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL_OUTROS,</v>
+        <v>CD_UNIDADE_NEGOCIO,</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>VL_SEGURO,</v>
+        <v>VL_DESCONTO_INCONDICIONAL,</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="15" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CIF_IMPORTACAO,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="15" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ADICIONAL_IMPORTACAO,</v>
+        <v>CD_TIPO_ORDEM_VENDA,</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="15" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA_ADUANEIRA,</v>
+        <v>DT_ULT_ATUALIZACAO,</v>
       </c>
     </row>
     <row r="50" spans="3:6">

--- a/Documentação/Planilhas/20151124_Confere/Conferencia_NFD.xlsx
+++ b/Documentação/Planilhas/20151124_Confere/Conferencia_NFD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stg_nfd_cab" sheetId="104" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="395">
   <si>
     <t>CD_CIA</t>
   </si>
@@ -137,27 +137,6 @@
     <t>CD_CLIENTE_ENTREGA</t>
   </si>
   <si>
-    <t>NR_PEDIDO</t>
-  </si>
-  <si>
-    <t>NR_ENTREGA</t>
-  </si>
-  <si>
-    <t>NR_ORDEM</t>
-  </si>
-  <si>
-    <t>NR_NF_FATURA</t>
-  </si>
-  <si>
-    <t>NR_SERIE_NF_FATURA</t>
-  </si>
-  <si>
-    <t>NR_NF_REMESSA</t>
-  </si>
-  <si>
-    <t>NR_SERIE_NF_REMESSA</t>
-  </si>
-  <si>
     <t>DT_SITUACAO_NF</t>
   </si>
   <si>
@@ -168,9 +147,6 @@
   </si>
   <si>
     <t>DT_ULT_ATUALIZACAO</t>
-  </si>
-  <si>
-    <t>CD_UNIDADE_NEGOCIO</t>
   </si>
   <si>
     <t>CD_TIPO_DOCUMENTO_FISCAL</t>
@@ -797,15 +773,9 @@
     <t>Fazer o detalhamento da ref fiscal. Na aba superior "NF-e", seção "NF-e", pegar a informação de "Código da razão do cancelamento"</t>
   </si>
   <si>
-    <t>Informar a Ref Fiscal na lupinha, limpando primeiramente todos os campos. Em seguinda, pegar a informação do campo "Data". A data mais antiga para o status da transmissão como "Cancelada"</t>
-  </si>
-  <si>
     <t>cislil504m00l, brnfel520m00l, tcmcs0565m000 e tcemm0130m000</t>
   </si>
   <si>
-    <t>Informar a Ref Fiscal na lupinha, limpando primeiramente todos os campos. Em seguinda, pegar a informação do campo "Data". A data mais antiga para o mesmo status da transmissão existente na Nota fiscal. Caso não tenha o mesmo status, pegar a maior data existente</t>
-  </si>
-  <si>
     <t>Fazer o detalhamento da Referência Fiscal. Na aba inferior "Linhas - Nota Fiscal", pegar a primeira informação da coluna "Referência Fiscal Relativa"</t>
   </si>
   <si>
@@ -1059,6 +1029,198 @@
   </si>
   <si>
     <t>Está buscando o campo interno "rcd_utc" da tabela "cisli943". Não temos acesso pelas telas do LN nesta data</t>
+  </si>
+  <si>
+    <t>100001888</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>13425754</t>
+  </si>
+  <si>
+    <t>1.0000</t>
+  </si>
+  <si>
+    <t>239.0000</t>
+  </si>
+  <si>
+    <t>5202</t>
+  </si>
+  <si>
+    <t>45.4100</t>
+  </si>
+  <si>
+    <t>11.9500</t>
+  </si>
+  <si>
+    <t>4.1400</t>
+  </si>
+  <si>
+    <t>3.9435</t>
+  </si>
+  <si>
+    <t>18.1640</t>
+  </si>
+  <si>
+    <t>N00010</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2016-01-13 09:47:32.000</t>
+  </si>
+  <si>
+    <t>13425755</t>
+  </si>
+  <si>
+    <t>13425756</t>
+  </si>
+  <si>
+    <t>7.1700</t>
+  </si>
+  <si>
+    <t>231.8300</t>
+  </si>
+  <si>
+    <t>44.0500</t>
+  </si>
+  <si>
+    <t>100001848</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>2016-01-13 09:47:01.000</t>
+  </si>
+  <si>
+    <t>33160107170938001502550020000001421912339974</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>2016-01-13 09:34:07.000</t>
+  </si>
+  <si>
+    <t>160000300</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>2015-12-16 14:02:07.000</t>
+  </si>
+  <si>
+    <t>2015-12-16 13:57:37.000</t>
+  </si>
+  <si>
+    <t>N00016</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>160000301</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>129150001664709</t>
+  </si>
+  <si>
+    <t>29151207170938002495550010000003041009070088</t>
+  </si>
+  <si>
+    <t>2015-12-16 14:02:09.000</t>
+  </si>
+  <si>
+    <t>2015-12-16 13:57:38.000</t>
+  </si>
+  <si>
+    <t>160000302</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>29151207170938002495550010000003051751023041</t>
+  </si>
+  <si>
+    <t>2015-12-16 14:02:10.000</t>
+  </si>
+  <si>
+    <t>160000303</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>29151207170938002495550010000003061430675769</t>
+  </si>
+  <si>
+    <t>160000304</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>29151207170938002495550010000003071120370495</t>
+  </si>
+  <si>
+    <t>2015-12-16 16:47:02.000</t>
+  </si>
+  <si>
+    <t>2015-12-16 14:05:17.000</t>
+  </si>
+  <si>
+    <t>160000305</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>129150001674738</t>
+  </si>
+  <si>
+    <t>29151207170938002495550010000003081334179637</t>
+  </si>
+  <si>
+    <t>2015-12-17 16:25:48.000</t>
+  </si>
+  <si>
+    <t>2015-12-16 16:24:48.000</t>
+  </si>
+  <si>
+    <t>160000306</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>129150001674744</t>
+  </si>
+  <si>
+    <t>29151207170938002495550010000003091192631850</t>
+  </si>
+  <si>
+    <t>2015-12-17 16:46:10.000</t>
+  </si>
+  <si>
+    <t>2015-12-16 16:26:45.000</t>
+  </si>
+  <si>
+    <t>Informar a Ref Fiscal na lupinha, limpando primeiramente todos os campos. Em seguida, pegar a informação do campo "Data". A data mais antiga para o mesmo status da transmissão existente na Nota fiscal. Caso não tenha o mesmo status, pegar a maior data existente</t>
+  </si>
+  <si>
+    <t>Informar a Ref Fiscal na lupinha, limpando primeiramente todos os campos. Em seguida, pegar a informação do campo "Data". A data mais antiga para o status da transmissão como "Cancelada"</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1392,11 +1554,41 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1413,37 +1605,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,6 +1638,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1485,14 +1656,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1854,7 +2022,7 @@
   </sheetPr>
   <dimension ref="A1:AN136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="AK32" sqref="AK32"/>
     </sheetView>
   </sheetViews>
@@ -1905,24 +2073,24 @@
       <c r="AM1" s="4"/>
     </row>
     <row r="2" spans="1:40" ht="21">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI2" s="56"/>
-      <c r="AL2" s="56"/>
+        <v>251</v>
+      </c>
+      <c r="AI2" s="25"/>
+      <c r="AL2" s="25"/>
       <c r="AM2" s="4"/>
     </row>
     <row r="3" spans="1:40" ht="21">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="4"/>
@@ -1941,7 +2109,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>22</v>
@@ -1953,7 +2121,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>32</v>
@@ -1968,7 +2136,7 @@
         <v>24</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>35</v>
@@ -1977,7 +2145,7 @@
         <v>36</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>6</v>
@@ -2007,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="Y6" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="11" t="s">
         <v>25</v>
@@ -2046,729 +2214,729 @@
         <v>3</v>
       </c>
       <c r="AL6" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AM6" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="U7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="X7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z7" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="AA7" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="54" t="s">
+      <c r="AB7" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="AC7" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG7" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" s="54" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" s="54" t="s">
+      <c r="AH7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ7" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="AK7" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL7" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="M7" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="P7" s="54" t="s">
+      <c r="AM7" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="Q7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="R7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="S7" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="T7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="U7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="V7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="W7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="X7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z7" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA7" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="AB7" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC7" s="54" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD7" s="54" t="s">
-        <v>279</v>
-      </c>
-      <c r="AE7" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG7" s="54" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH7" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ7" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="AK7" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="AN7" s="3"/>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="AF8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM8" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB8" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AF8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH8" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="AN8" s="3"/>
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="AF9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM9" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="AN9" s="3"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K10" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG10" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH10" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI10" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ10" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="AK10" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AL10" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AM10" s="4" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="AN10" s="3"/>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ11" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK11" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM11" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG11" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI11" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ11" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AK11" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM11" s="4" t="s">
-        <v>327</v>
       </c>
       <c r="AN11" s="3"/>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA12" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AJ12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK12" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM12" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD12" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AE12" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AG12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AI12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AJ12" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AK12" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM12" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="AN12" s="3"/>
     </row>
@@ -2937,508 +3105,508 @@
       <c r="AN17" s="3"/>
     </row>
     <row r="18" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B18" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
-      <c r="AI18" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ18" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK18" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL18" s="24" t="s">
-        <v>157</v>
+      <c r="B18" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ18" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK18" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL18" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="AM18" s="1"/>
       <c r="AN18" s="3"/>
     </row>
     <row r="19" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="23"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="26"/>
+      <c r="AD19" s="26"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="40"/>
+      <c r="AL19" s="40"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="3"/>
     </row>
     <row r="20" spans="1:40" ht="11.25" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="23"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="40"/>
+      <c r="AL20" s="40"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="3"/>
     </row>
     <row r="21" spans="1:40" ht="11.25" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="A21" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="N21" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="O21" s="30" t="s">
+      <c r="M21" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="R21" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="T21" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="U21" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="V21" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="W21" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="X21" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y21" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z21" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA21" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="P21" s="30" t="s">
+      <c r="AB21" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC21" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD21" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE21" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF21" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG21" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI21" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="Q21" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="R21" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="S21" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="T21" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="U21" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="V21" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="W21" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="X21" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y21" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z21" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA21" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB21" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC21" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD21" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE21" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF21" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG21" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH21" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI21" s="29" t="s">
+      <c r="AJ21" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="AJ21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK21" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL21" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="AM21" s="28" t="s">
-        <v>340</v>
+      <c r="AK21" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL21" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM21" s="38" t="s">
+        <v>330</v>
       </c>
       <c r="AN21" s="3"/>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="29"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="37"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="38"/>
       <c r="AN22" s="3"/>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="30"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="37"/>
-      <c r="AE23" s="37"/>
-      <c r="AF23" s="30"/>
-      <c r="AG23" s="30"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="29"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="38"/>
       <c r="AN23" s="3"/>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="30"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="37"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="29"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="37"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="38"/>
       <c r="AN24" s="3"/>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="30"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AD25" s="37"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="30"/>
-      <c r="AG25" s="30"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="26"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="39"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="37"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="38"/>
       <c r="AN25" s="3"/>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="37"/>
-      <c r="AE26" s="37"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="26"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="39"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="37"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="38"/>
       <c r="AN26" s="3"/>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="30"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="30"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="37"/>
-      <c r="AF27" s="30"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="26"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="39"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="37"/>
+      <c r="AL27" s="35"/>
+      <c r="AM27" s="38"/>
       <c r="AN27" s="3"/>
     </row>
     <row r="28" spans="1:40" ht="11.25" customHeight="1">
@@ -3446,10 +3614,10 @@
       <c r="J28" s="1"/>
       <c r="O28" s="4"/>
       <c r="P28" s="1"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="34"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="29"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="1"/>
       <c r="AI28" s="1"/>
@@ -3469,10 +3637,10 @@
         <v>21</v>
       </c>
       <c r="P29" s="1"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="34"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="29"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="1"/>
       <c r="AI29" s="1"/>
@@ -3481,21 +3649,21 @@
     </row>
     <row r="30" spans="1:40">
       <c r="C30" s="21" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="1"/>
       <c r="O30" s="18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P30" s="1"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="34"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="29"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="1"/>
       <c r="AI30" s="1"/>
@@ -3504,15 +3672,15 @@
     </row>
     <row r="31" spans="1:40">
       <c r="C31" s="21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="1"/>
       <c r="O31" s="18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="P31" s="1"/>
       <c r="X31" s="2"/>
@@ -3523,28 +3691,28 @@
     </row>
     <row r="32" spans="1:40">
       <c r="C32" s="21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="1"/>
       <c r="O32" s="18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="R32" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="S32" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="T32" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="U32" s="30" t="s">
-        <v>339</v>
+      <c r="R32" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="U32" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1"/>
@@ -3554,21 +3722,21 @@
     </row>
     <row r="33" spans="3:40">
       <c r="C33" s="21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="1"/>
       <c r="O33" s="18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="P33" s="1"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="1"/>
       <c r="AI33" s="1"/>
@@ -3577,21 +3745,21 @@
     </row>
     <row r="34" spans="3:40">
       <c r="C34" s="21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="1"/>
       <c r="O34" s="18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="1"/>
       <c r="AI34" s="1"/>
@@ -3600,21 +3768,21 @@
     </row>
     <row r="35" spans="3:40">
       <c r="C35" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="1"/>
       <c r="O35" s="18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="1"/>
       <c r="AI35" s="1"/>
@@ -3623,21 +3791,21 @@
     </row>
     <row r="36" spans="3:40">
       <c r="C36" s="22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="1"/>
       <c r="O36" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="1"/>
       <c r="AI36" s="1"/>
@@ -3646,16 +3814,16 @@
     </row>
     <row r="37" spans="3:40">
       <c r="D37" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="1"/>
       <c r="O37" s="4"/>
       <c r="P37" s="1"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="1"/>
       <c r="AI37" s="1"/>
@@ -3664,16 +3832,16 @@
     </row>
     <row r="38" spans="3:40">
       <c r="D38" s="18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="1"/>
       <c r="O38" s="4"/>
       <c r="P38" s="1"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="1"/>
       <c r="AI38" s="1"/>
@@ -3682,16 +3850,16 @@
     </row>
     <row r="39" spans="3:40">
       <c r="D39" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="1"/>
       <c r="O39" s="4"/>
       <c r="P39" s="1"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="1"/>
       <c r="AI39" s="1"/>
@@ -3700,16 +3868,16 @@
     </row>
     <row r="40" spans="3:40">
       <c r="D40" s="18" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="1"/>
       <c r="O40" s="4"/>
       <c r="P40" s="1"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="1"/>
       <c r="AI40" s="1"/>
@@ -3718,16 +3886,16 @@
     </row>
     <row r="41" spans="3:40">
       <c r="D41" s="18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="1"/>
       <c r="O41" s="4"/>
       <c r="P41" s="1"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
+      <c r="R41" s="34"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="1"/>
       <c r="AI41" s="1"/>
@@ -3736,7 +3904,7 @@
     </row>
     <row r="42" spans="3:40">
       <c r="D42" s="18" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="1"/>
@@ -3750,7 +3918,7 @@
     </row>
     <row r="43" spans="3:40">
       <c r="D43" s="18" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="1"/>
@@ -3764,7 +3932,7 @@
     </row>
     <row r="44" spans="3:40">
       <c r="D44" s="18" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="1"/>
@@ -3778,7 +3946,7 @@
     </row>
     <row r="45" spans="3:40">
       <c r="D45" s="18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="1"/>
@@ -3792,7 +3960,7 @@
     </row>
     <row r="46" spans="3:40">
       <c r="D46" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="1"/>
@@ -3806,7 +3974,7 @@
     </row>
     <row r="47" spans="3:40">
       <c r="D47" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="1"/>
@@ -3820,7 +3988,7 @@
     </row>
     <row r="48" spans="3:40">
       <c r="D48" s="18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="1"/>
@@ -3834,7 +4002,7 @@
     </row>
     <row r="49" spans="4:40">
       <c r="D49" s="18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="1"/>
@@ -3848,7 +4016,7 @@
     </row>
     <row r="50" spans="4:40">
       <c r="D50" s="18" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="1"/>
@@ -3862,7 +4030,7 @@
     </row>
     <row r="51" spans="4:40">
       <c r="D51" s="18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="1"/>
@@ -3876,7 +4044,7 @@
     </row>
     <row r="52" spans="4:40">
       <c r="D52" s="18" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="1"/>
@@ -3890,7 +4058,7 @@
     </row>
     <row r="53" spans="4:40">
       <c r="D53" s="18" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="1"/>
@@ -3904,7 +4072,7 @@
     </row>
     <row r="54" spans="4:40">
       <c r="D54" s="18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="1"/>
@@ -3918,7 +4086,7 @@
     </row>
     <row r="55" spans="4:40">
       <c r="D55" s="18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="1"/>
@@ -3932,7 +4100,7 @@
     </row>
     <row r="56" spans="4:40">
       <c r="D56" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="1"/>
@@ -3946,7 +4114,7 @@
     </row>
     <row r="57" spans="4:40">
       <c r="D57" s="18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="1"/>
@@ -3960,7 +4128,7 @@
     </row>
     <row r="58" spans="4:40">
       <c r="D58" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="1"/>
@@ -3974,7 +4142,7 @@
     </row>
     <row r="59" spans="4:40">
       <c r="D59" s="18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="1"/>
@@ -3988,7 +4156,7 @@
     </row>
     <row r="60" spans="4:40">
       <c r="D60" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="1"/>
@@ -4002,7 +4170,7 @@
     </row>
     <row r="61" spans="4:40">
       <c r="D61" s="18" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="1"/>
@@ -4016,7 +4184,7 @@
     </row>
     <row r="62" spans="4:40">
       <c r="D62" s="18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="1"/>
@@ -4030,7 +4198,7 @@
     </row>
     <row r="63" spans="4:40">
       <c r="D63" s="18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="1"/>
@@ -4044,7 +4212,7 @@
     </row>
     <row r="64" spans="4:40">
       <c r="D64" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="1"/>
@@ -4058,7 +4226,7 @@
     </row>
     <row r="65" spans="4:40">
       <c r="D65" s="18" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="1"/>
@@ -4072,7 +4240,7 @@
     </row>
     <row r="66" spans="4:40">
       <c r="D66" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="1"/>
@@ -4086,7 +4254,7 @@
     </row>
     <row r="67" spans="4:40">
       <c r="D67" s="18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="1"/>
@@ -4100,7 +4268,7 @@
     </row>
     <row r="68" spans="4:40">
       <c r="D68" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="1"/>
@@ -4114,7 +4282,7 @@
     </row>
     <row r="69" spans="4:40">
       <c r="D69" s="18" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="1"/>
@@ -4128,7 +4296,7 @@
     </row>
     <row r="70" spans="4:40">
       <c r="D70" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="1"/>
@@ -4142,7 +4310,7 @@
     </row>
     <row r="71" spans="4:40">
       <c r="D71" s="18" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="1"/>
@@ -4156,7 +4324,7 @@
     </row>
     <row r="72" spans="4:40">
       <c r="D72" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="1"/>
@@ -4170,7 +4338,7 @@
     </row>
     <row r="73" spans="4:40">
       <c r="D73" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="1"/>
@@ -4184,7 +4352,7 @@
     </row>
     <row r="74" spans="4:40">
       <c r="D74" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="1"/>
@@ -4198,7 +4366,7 @@
     </row>
     <row r="75" spans="4:40">
       <c r="D75" s="18" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="1"/>
@@ -4212,7 +4380,7 @@
     </row>
     <row r="76" spans="4:40">
       <c r="D76" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="1"/>
@@ -4240,7 +4408,7 @@
     </row>
     <row r="78" spans="4:40">
       <c r="D78" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="1"/>
@@ -4254,7 +4422,7 @@
     </row>
     <row r="79" spans="4:40">
       <c r="D79" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="1"/>
@@ -4268,7 +4436,7 @@
     </row>
     <row r="80" spans="4:40">
       <c r="D80" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="1"/>
@@ -4880,6 +5048,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="AM21:AM27"/>
+    <mergeCell ref="AI21:AI27"/>
+    <mergeCell ref="AI18:AI20"/>
+    <mergeCell ref="AJ18:AJ20"/>
+    <mergeCell ref="AK18:AK20"/>
+    <mergeCell ref="AL18:AL20"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="S32:S41"/>
+    <mergeCell ref="AL21:AL27"/>
+    <mergeCell ref="AJ21:AJ27"/>
+    <mergeCell ref="AK21:AK27"/>
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="M21:M27"/>
+    <mergeCell ref="X21:X27"/>
+    <mergeCell ref="U32:U41"/>
+    <mergeCell ref="R21:R30"/>
+    <mergeCell ref="R32:R41"/>
+    <mergeCell ref="T32:T41"/>
+    <mergeCell ref="S21:S30"/>
+    <mergeCell ref="T21:T30"/>
+    <mergeCell ref="N21:N27"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="O21:O27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="C21:C27"/>
     <mergeCell ref="B18:AH20"/>
     <mergeCell ref="P21:P27"/>
     <mergeCell ref="Q21:Q27"/>
@@ -4895,41 +5097,7 @@
     <mergeCell ref="AC21:AC27"/>
     <mergeCell ref="AE21:AE27"/>
     <mergeCell ref="U21:U30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="C21:C27"/>
     <mergeCell ref="AD21:AD27"/>
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="M21:M27"/>
-    <mergeCell ref="X21:X27"/>
-    <mergeCell ref="U32:U41"/>
-    <mergeCell ref="R21:R30"/>
-    <mergeCell ref="R32:R41"/>
-    <mergeCell ref="T32:T41"/>
-    <mergeCell ref="S21:S30"/>
-    <mergeCell ref="T21:T30"/>
-    <mergeCell ref="N21:N27"/>
-    <mergeCell ref="L21:L27"/>
-    <mergeCell ref="O21:O27"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="S32:S41"/>
-    <mergeCell ref="AL21:AL27"/>
-    <mergeCell ref="AJ21:AJ27"/>
-    <mergeCell ref="AK21:AK27"/>
-    <mergeCell ref="AM21:AM27"/>
-    <mergeCell ref="AI21:AI27"/>
-    <mergeCell ref="AI18:AI20"/>
-    <mergeCell ref="AJ18:AJ20"/>
-    <mergeCell ref="AK18:AK20"/>
-    <mergeCell ref="AL18:AL20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4939,12 +5107,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF5050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:BB125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C20" sqref="C20:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5011,22 +5179,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:54" ht="21">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:54" ht="21">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="Z3" s="1"/>
     </row>
@@ -5044,37 +5212,37 @@
         <v>32</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>6</v>
@@ -5089,25 +5257,25 @@
         <v>24</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="V6" s="11" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="X6" s="11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Y6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AA6" s="11" t="s">
         <v>14</v>
@@ -5116,13 +5284,13 @@
         <v>26</v>
       </c>
       <c r="AC6" s="11" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AD6" s="11" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AF6" s="11" t="s">
         <v>18</v>
@@ -5131,13 +5299,13 @@
         <v>27</v>
       </c>
       <c r="AH6" s="11" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AI6" s="11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AJ6" s="11" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AK6" s="11" t="s">
         <v>19</v>
@@ -5149,13 +5317,13 @@
         <v>28</v>
       </c>
       <c r="AN6" s="11" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AO6" s="11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AP6" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AQ6" s="11" t="s">
         <v>12</v>
@@ -5176,7 +5344,7 @@
         <v>8</v>
       </c>
       <c r="AW6" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="AX6" s="11" t="s">
         <v>9</v>
@@ -5188,143 +5356,491 @@
         <v>3</v>
       </c>
       <c r="BA6" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="9"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q7" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG7" s="57">
+        <v>190700</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY7" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="BA7" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="9"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG8" s="57">
+        <v>190700</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="BA8" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="9"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG9" s="57">
+        <v>190700</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AR9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AV9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AW9" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY9" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="AZ9" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="BA9" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="10" spans="1:54">
       <c r="A10" s="4"/>
@@ -5353,7 +5869,7 @@
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
-      <c r="AG10" s="14"/>
+      <c r="AG10" s="57"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
@@ -5398,7 +5914,7 @@
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
-      <c r="AG11" s="14"/>
+      <c r="AG11" s="57"/>
       <c r="AH11" s="4"/>
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
@@ -5443,7 +5959,7 @@
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
-      <c r="AG12" s="14"/>
+      <c r="AG12" s="57"/>
       <c r="AH12" s="4"/>
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
@@ -5614,7 +6130,7 @@
     </row>
     <row r="17" spans="1:54" ht="11.25" customHeight="1">
       <c r="B17" s="41" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -5664,11 +6180,11 @@
       <c r="AV17" s="42"/>
       <c r="AW17" s="42"/>
       <c r="AX17" s="43"/>
-      <c r="AY17" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ17" s="38" t="s">
-        <v>160</v>
+      <c r="AY17" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ17" s="51" t="s">
+        <v>152</v>
       </c>
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
@@ -5723,8 +6239,8 @@
       <c r="AV18" s="45"/>
       <c r="AW18" s="45"/>
       <c r="AX18" s="46"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
     </row>
@@ -5778,507 +6294,507 @@
       <c r="AV19" s="48"/>
       <c r="AW19" s="48"/>
       <c r="AX19" s="49"/>
-      <c r="AY19" s="40"/>
-      <c r="AZ19" s="40"/>
+      <c r="AY19" s="53"/>
+      <c r="AZ19" s="53"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
     </row>
     <row r="20" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A20" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="N20" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P20" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="R20" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="S20" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="T20" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="U20" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F20" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="I20" s="30" t="s">
+      <c r="V20" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z20" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="N20" s="30" t="s">
+      <c r="AA20" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB20" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="O20" s="30" t="s">
+      <c r="AC20" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="AD20" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE20" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF20" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG20" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="P20" s="30" t="s">
+      <c r="AH20" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI20" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ20" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK20" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL20" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="Q20" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="R20" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="T20" s="30" t="s">
+      <c r="AM20" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN20" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="AO20" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="AP20" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ20" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="U20" s="30" t="s">
+      <c r="AR20" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="V20" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="W20" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="X20" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y20" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z20" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA20" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB20" s="34" t="s">
+      <c r="AS20" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT20" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AU20" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="AC20" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD20" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="AE20" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF20" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG20" s="34" t="s">
+      <c r="AV20" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AH20" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI20" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ20" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK20" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL20" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM20" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="AN20" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO20" s="34" t="s">
+      <c r="AW20" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX20" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY20" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="AZ20" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA20" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="AP20" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="AQ20" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR20" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS20" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT20" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="AU20" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="AV20" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW20" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX20" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="AY20" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ20" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA20" s="28" t="s">
-        <v>233</v>
-      </c>
       <c r="BB20" s="3"/>
     </row>
     <row r="21" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A21" s="32"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="34"/>
-      <c r="AK21" s="34"/>
-      <c r="AL21" s="34"/>
-      <c r="AM21" s="34"/>
-      <c r="AN21" s="34"/>
-      <c r="AO21" s="34"/>
-      <c r="AP21" s="34"/>
-      <c r="AQ21" s="34"/>
-      <c r="AR21" s="34"/>
-      <c r="AS21" s="34"/>
-      <c r="AT21" s="34"/>
-      <c r="AU21" s="34"/>
-      <c r="AV21" s="34"/>
-      <c r="AW21" s="34"/>
-      <c r="AX21" s="34"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="28"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="38"/>
       <c r="BB21" s="3"/>
     </row>
     <row r="22" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="34"/>
-      <c r="AK22" s="34"/>
-      <c r="AL22" s="34"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="27"/>
-      <c r="BA22" s="28"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="38"/>
       <c r="BB22" s="3"/>
     </row>
     <row r="23" spans="1:54" ht="11.25" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="34"/>
-      <c r="AK23" s="34"/>
-      <c r="AL23" s="34"/>
-      <c r="AM23" s="34"/>
-      <c r="AN23" s="34"/>
-      <c r="AO23" s="34"/>
-      <c r="AP23" s="34"/>
-      <c r="AQ23" s="34"/>
-      <c r="AR23" s="34"/>
-      <c r="AS23" s="34"/>
-      <c r="AT23" s="34"/>
-      <c r="AU23" s="34"/>
-      <c r="AV23" s="34"/>
-      <c r="AW23" s="34"/>
-      <c r="AX23" s="34"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="28"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+      <c r="AI23" s="29"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="29"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="29"/>
+      <c r="AT23" s="29"/>
+      <c r="AU23" s="29"/>
+      <c r="AV23" s="29"/>
+      <c r="AW23" s="29"/>
+      <c r="AX23" s="29"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="37"/>
+      <c r="BA23" s="38"/>
       <c r="BB23" s="3"/>
     </row>
     <row r="24" spans="1:54">
-      <c r="A24" s="32"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="30"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="30"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="34"/>
-      <c r="AK24" s="34"/>
-      <c r="AL24" s="34"/>
-      <c r="AM24" s="34"/>
-      <c r="AN24" s="34"/>
-      <c r="AO24" s="34"/>
-      <c r="AP24" s="34"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="27"/>
-      <c r="BA24" s="28"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
+      <c r="AS24" s="29"/>
+      <c r="AT24" s="29"/>
+      <c r="AU24" s="29"/>
+      <c r="AV24" s="29"/>
+      <c r="AW24" s="29"/>
+      <c r="AX24" s="29"/>
+      <c r="AY24" s="36"/>
+      <c r="AZ24" s="37"/>
+      <c r="BA24" s="38"/>
       <c r="BB24" s="3"/>
     </row>
     <row r="25" spans="1:54">
-      <c r="A25" s="32"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="30"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="34"/>
-      <c r="AK25" s="34"/>
-      <c r="AL25" s="34"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="26"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="28"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="29"/>
+      <c r="AT25" s="29"/>
+      <c r="AU25" s="29"/>
+      <c r="AV25" s="29"/>
+      <c r="AW25" s="29"/>
+      <c r="AX25" s="29"/>
+      <c r="AY25" s="36"/>
+      <c r="AZ25" s="37"/>
+      <c r="BA25" s="38"/>
       <c r="BB25" s="3"/>
     </row>
     <row r="26" spans="1:54">
-      <c r="A26" s="33"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="34"/>
-      <c r="AK26" s="34"/>
-      <c r="AL26" s="34"/>
-      <c r="AM26" s="34"/>
-      <c r="AN26" s="34"/>
-      <c r="AO26" s="34"/>
-      <c r="AP26" s="34"/>
-      <c r="AQ26" s="34"/>
-      <c r="AR26" s="34"/>
-      <c r="AS26" s="34"/>
-      <c r="AT26" s="34"/>
-      <c r="AU26" s="34"/>
-      <c r="AV26" s="34"/>
-      <c r="AW26" s="34"/>
-      <c r="AX26" s="34"/>
-      <c r="AY26" s="26"/>
-      <c r="AZ26" s="27"/>
-      <c r="BA26" s="28"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
+      <c r="AS26" s="29"/>
+      <c r="AT26" s="29"/>
+      <c r="AU26" s="29"/>
+      <c r="AV26" s="29"/>
+      <c r="AW26" s="29"/>
+      <c r="AX26" s="29"/>
+      <c r="AY26" s="36"/>
+      <c r="AZ26" s="37"/>
+      <c r="BA26" s="38"/>
       <c r="BB26" s="3"/>
     </row>
     <row r="27" spans="1:54">
@@ -6321,21 +6837,21 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="10"/>
       <c r="AF29" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AG29" s="1"/>
       <c r="AK29" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AS29" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AT29" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="AV29" s="8" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
@@ -7842,6 +8358,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="BA20:BA26"/>
+    <mergeCell ref="AY17:AY19"/>
+    <mergeCell ref="AZ17:AZ19"/>
+    <mergeCell ref="AY20:AY26"/>
+    <mergeCell ref="AZ20:AZ26"/>
+    <mergeCell ref="AS20:AS26"/>
+    <mergeCell ref="AT20:AT26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="AF20:AF26"/>
+    <mergeCell ref="AK20:AK26"/>
+    <mergeCell ref="AI20:AI26"/>
+    <mergeCell ref="AJ20:AJ26"/>
+    <mergeCell ref="AN20:AN26"/>
+    <mergeCell ref="AO20:AO26"/>
+    <mergeCell ref="R20:R26"/>
+    <mergeCell ref="S20:S26"/>
+    <mergeCell ref="K20:K26"/>
+    <mergeCell ref="N20:N26"/>
+    <mergeCell ref="O20:O26"/>
+    <mergeCell ref="P20:P26"/>
+    <mergeCell ref="AV20:AV26"/>
+    <mergeCell ref="AW20:AW26"/>
+    <mergeCell ref="V20:V26"/>
+    <mergeCell ref="W20:W26"/>
+    <mergeCell ref="X20:X26"/>
+    <mergeCell ref="AC20:AC26"/>
+    <mergeCell ref="Z20:Z26"/>
+    <mergeCell ref="AA20:AA26"/>
+    <mergeCell ref="Y20:Y26"/>
+    <mergeCell ref="AB20:AB26"/>
+    <mergeCell ref="AG20:AG26"/>
+    <mergeCell ref="AL20:AL26"/>
+    <mergeCell ref="AD20:AD26"/>
+    <mergeCell ref="AE20:AE26"/>
+    <mergeCell ref="AH20:AH26"/>
+    <mergeCell ref="AU20:AU26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="D20:D26"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="J20:J26"/>
+    <mergeCell ref="I20:I26"/>
     <mergeCell ref="AX20:AX26"/>
     <mergeCell ref="B17:AX19"/>
     <mergeCell ref="A2:B2"/>
@@ -7858,48 +8416,6 @@
     <mergeCell ref="AM20:AM26"/>
     <mergeCell ref="Q20:Q26"/>
     <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="D20:D26"/>
-    <mergeCell ref="C20:C26"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="AV20:AV26"/>
-    <mergeCell ref="AW20:AW26"/>
-    <mergeCell ref="V20:V26"/>
-    <mergeCell ref="W20:W26"/>
-    <mergeCell ref="X20:X26"/>
-    <mergeCell ref="AC20:AC26"/>
-    <mergeCell ref="Z20:Z26"/>
-    <mergeCell ref="AA20:AA26"/>
-    <mergeCell ref="Y20:Y26"/>
-    <mergeCell ref="AB20:AB26"/>
-    <mergeCell ref="AG20:AG26"/>
-    <mergeCell ref="AL20:AL26"/>
-    <mergeCell ref="AD20:AD26"/>
-    <mergeCell ref="AE20:AE26"/>
-    <mergeCell ref="AH20:AH26"/>
-    <mergeCell ref="AU20:AU26"/>
-    <mergeCell ref="AS20:AS26"/>
-    <mergeCell ref="AT20:AT26"/>
-    <mergeCell ref="G20:G26"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="AF20:AF26"/>
-    <mergeCell ref="AK20:AK26"/>
-    <mergeCell ref="AI20:AI26"/>
-    <mergeCell ref="AJ20:AJ26"/>
-    <mergeCell ref="AN20:AN26"/>
-    <mergeCell ref="AO20:AO26"/>
-    <mergeCell ref="R20:R26"/>
-    <mergeCell ref="S20:S26"/>
-    <mergeCell ref="K20:K26"/>
-    <mergeCell ref="N20:N26"/>
-    <mergeCell ref="O20:O26"/>
-    <mergeCell ref="P20:P26"/>
-    <mergeCell ref="BA20:BA26"/>
-    <mergeCell ref="AY17:AY19"/>
-    <mergeCell ref="AZ17:AZ19"/>
-    <mergeCell ref="AY20:AY26"/>
-    <mergeCell ref="AZ20:AZ26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7909,12 +8425,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFF5050"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:BB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7981,22 +8497,22 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:54" ht="21">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:54" ht="21">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="M3" s="5"/>
       <c r="Z3" s="1"/>
@@ -8025,31 +8541,31 @@
         <v>29</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>4</v>
@@ -8072,17 +8588,45 @@
       <c r="BB6" s="3"/>
     </row>
     <row r="7" spans="1:54">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>354</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>344</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -8121,17 +8665,45 @@
       <c r="BB7" s="3"/>
     </row>
     <row r="8" spans="1:54">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -8170,17 +8742,45 @@
       <c r="BB8" s="3"/>
     </row>
     <row r="9" spans="1:54">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -8219,17 +8819,45 @@
       <c r="BB9" s="3"/>
     </row>
     <row r="10" spans="1:54">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -8268,17 +8896,45 @@
       <c r="BB10" s="3"/>
     </row>
     <row r="11" spans="1:54">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -8314,17 +8970,45 @@
       <c r="AX11" s="4"/>
     </row>
     <row r="12" spans="1:54">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -8360,17 +9044,45 @@
       <c r="AX12" s="4"/>
     </row>
     <row r="13" spans="1:54">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -8406,17 +9118,45 @@
       <c r="AX13" s="4"/>
     </row>
     <row r="14" spans="1:54">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -8452,17 +9192,45 @@
       <c r="AX14" s="4"/>
     </row>
     <row r="15" spans="1:54">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -8549,7 +9317,7 @@
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1">
       <c r="B18" s="41" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="42"/>
@@ -8558,15 +9326,15 @@
       <c r="G18" s="42"/>
       <c r="H18" s="42"/>
       <c r="I18" s="43"/>
-      <c r="J18" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>160</v>
+      <c r="J18" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="11.25" customHeight="1">
@@ -8578,10 +9346,10 @@
       <c r="G19" s="45"/>
       <c r="H19" s="45"/>
       <c r="I19" s="46"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" ht="11.25" customHeight="1">
       <c r="B20" s="47"/>
@@ -8592,141 +9360,141 @@
       <c r="G20" s="48"/>
       <c r="H20" s="48"/>
       <c r="I20" s="49"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="51" t="s">
-        <v>258</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>161</v>
+      <c r="A21" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I21" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="52"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="27"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="52"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="27"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="52"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="27"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="52"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="27"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="52"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="27"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="53"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="27"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="29" spans="1:13">
       <c r="E29" s="17" t="s">
@@ -8735,48 +9503,41 @@
     </row>
     <row r="30" spans="1:13">
       <c r="E30" s="18" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="E31" s="18" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="E32" s="18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="18" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" s="18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" s="18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="D21:D27"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="B21:B27"/>
     <mergeCell ref="K21:K27"/>
     <mergeCell ref="B18:I20"/>
     <mergeCell ref="J18:K20"/>
@@ -8789,6 +9550,13 @@
     <mergeCell ref="I21:I27"/>
     <mergeCell ref="J21:J27"/>
     <mergeCell ref="H21:H27"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="D21:D27"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="C21:C27"/>
+    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8799,8 +9567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F49" sqref="F3:F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F3:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8817,7 +9585,7 @@
         <v>CD_CIA,</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M3" t="str">
         <f>CONCATENATE("'",K3,"',")</f>
@@ -8833,7 +9601,7 @@
         <v>NR_REFERENCIA_FISCAL,</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" ref="M4:M12" si="1">CONCATENATE("'",K4,"',")</f>
@@ -8842,14 +9610,14 @@
     </row>
     <row r="5" spans="3:13">
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>CD_SITUACAO_NF,</v>
+        <v>NR_SERIE_NFE,</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="1"/>
@@ -8858,14 +9626,14 @@
     </row>
     <row r="6" spans="3:13">
       <c r="C6" s="15" t="s">
-        <v>22</v>
+        <v>233</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>CD_TIPO_NF,</v>
+        <v>NF_NFE,</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="1"/>
@@ -8874,14 +9642,14 @@
     </row>
     <row r="7" spans="3:13">
       <c r="C7" s="15" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>DT_EMISSAO_NF,</v>
+        <v>CD_STATUS_SEFAZ,</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="1"/>
@@ -8890,14 +9658,14 @@
     </row>
     <row r="8" spans="3:13">
       <c r="C8" s="15" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>HR_EMISSAO_NF,</v>
+        <v>NR_PROTOCOLO,</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
@@ -8906,14 +9674,14 @@
     </row>
     <row r="9" spans="3:13">
       <c r="C9" s="15" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_FATURA,</v>
+        <v>NR_CHAVE_ACESSO_NFE,</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
@@ -8922,14 +9690,14 @@
     </row>
     <row r="10" spans="3:13">
       <c r="C10" s="15" t="s">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NF_FATURA,</v>
+        <v>CD_MOTIVO_CANCELAMENTO,</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
@@ -8938,14 +9706,14 @@
     </row>
     <row r="11" spans="3:13">
       <c r="C11" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF_REMESSA,</v>
+        <v>DT_ULT_ATUALIZACAO,</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -8954,14 +9722,14 @@
     </row>
     <row r="12" spans="3:13">
       <c r="C12" s="15" t="s">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NF_REMESSA,</v>
+        <v>DT_STATUS,</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
@@ -8970,245 +9738,245 @@
     </row>
     <row r="13" spans="3:13">
       <c r="C13" s="15" t="s">
-        <v>39</v>
+        <v>238</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>NR_ORDEM,</v>
+        <v>DT_CANCELAMENTO,</v>
       </c>
     </row>
     <row r="14" spans="3:13">
       <c r="C14" s="15" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>CD_TIPO_DOCUMENTO_FISCAL,</v>
+        <v>CD_UNIDADE_EMPRESARIAL,</v>
       </c>
     </row>
     <row r="15" spans="3:13">
       <c r="C15" s="15" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NF,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="16" spans="3:13">
       <c r="C16" s="15" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NF,</v>
+        <v>VL_UNITARIO_PRODUTO,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" s="15" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>CD_NATUREZA_OPERACAO,</v>
+        <v>VL_TOTAL_ITEM,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="C18" s="15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>SQ_NATUREZA_OPERACAO,</v>
+        <v>VL_PRODUTO,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="15" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>DT_SITUACAO_NF,</v>
+        <v>VL_DESCONTO,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="15" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CLIENTE_FATURA,</v>
+        <v>CD_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CLIENTE_ENTREGA,</v>
+        <v>SQ_NATUREZA_OPERACAO,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="15" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>CD_STATUS_SEFAZ,</v>
+        <v>VL_BASE_ICMS,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
       <c r="C23" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PRODUTO,</v>
+        <v>VL_ICMS,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="C24" s="15" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE,</v>
+        <v>VL_ICMS_PRODUTO,</v>
       </c>
     </row>
     <row r="25" spans="3:6">
       <c r="C25" s="15" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CIF_IMPORTACAO,</v>
+        <v>VL_ICMS_FRETE,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
       <c r="C26" s="15" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>VL_SEGURO,</v>
+        <v>VL_ICMS_OUTROS,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="C27" s="15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA,</v>
+        <v>VL_ICMS_ST,</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="C28" s="15" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ADICIONAL_IMPORTACAO,</v>
+        <v>VL_BASE_IPI,</v>
       </c>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA_ADUANEIRA,</v>
+        <v>VL_IPI,</v>
       </c>
     </row>
     <row r="30" spans="3:6">
       <c r="C30" s="15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESPESA_FINANCEIRA,</v>
+        <v>VL_PIS,</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="C31" s="15" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL_NF,</v>
+        <v>VL_PIS_PRODUTO,</v>
       </c>
     </row>
     <row r="32" spans="3:6">
       <c r="C32" s="15" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS,</v>
+        <v>VL_PIS_FRETE,</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="15" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>VL_ICMS_ST,</v>
+        <v>VL_PIS_OUTROS,</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="C34" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>VL_IPI,</v>
+        <v>VL_PIS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="C35" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS,</v>
+        <v>VL_COFINS,</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="C36" s="15" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PIS_IMPORTACAO,</v>
+        <v>VL_COFINS_PRODUTO,</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS,</v>
+        <v>VL_COFINS_FRETE,</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="C38" s="15" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>VL_COFINS_IMPORTACAO,</v>
+        <v>VL_COFINS_OUTROS,</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="C39" s="15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>VL_CSLL,</v>
+        <v>VL_COFINS_IMPORTACAO,</v>
       </c>
     </row>
     <row r="40" spans="3:6">
@@ -9222,83 +9990,83 @@
     </row>
     <row r="41" spans="3:6">
       <c r="C41" s="15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO,</v>
+        <v>VL_CSLL,</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="C42" s="15" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>NR_PEDIDO,</v>
+        <v>VL_CSLL_PRODUTO,</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="C43" s="15" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>NR_ENTREGA,</v>
+        <v>VL_CSLL_FRETE,</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="C44" s="15" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_NEGOCIO,</v>
+        <v>VL_CSLL_OUTROS,</v>
       </c>
     </row>
     <row r="45" spans="3:6">
       <c r="C45" s="15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>VL_DESCONTO_INCONDICIONAL,</v>
+        <v>VL_SEGURO,</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="C46" s="15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>CD_UNIDADE_EMPRESARIAL,</v>
+        <v>VL_FRETE,</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="C47" s="15" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>CD_FILIAL,</v>
+        <v>VL_CIF_IMPORTACAO,</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="C48" s="15" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>CD_TIPO_ORDEM_VENDA,</v>
+        <v>VL_ADICIONAL_IMPORTACAO,</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" s="15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>DT_ULT_ATUALIZACAO,</v>
+        <v>VL_DESPESA_ADUANEIRA,</v>
       </c>
     </row>
     <row r="50" spans="3:6">
@@ -9312,7 +10080,7 @@
     </row>
     <row r="51" spans="3:6">
       <c r="C51" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -9348,7 +10116,7 @@
     </row>
     <row r="55" spans="3:6">
       <c r="C55" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
